--- a/tests/test1/d30/N, 0.2.xlsx
+++ b/tests/test1/d30/N, 0.2.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003291999999959216</v>
+        <v>0.0003840999999979999</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0002981999999960294</v>
+        <v>0.0005662000000015155</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003280000000032146</v>
+        <v>0.000317199999997797</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003063999999994849</v>
+        <v>0.0002920000000017353</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003036999999963541</v>
+        <v>0.000499999999995282</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003324999999989586</v>
+        <v>0.0004269999999948482</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003035999999951855</v>
+        <v>0.0003202000000044336</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003074999999981287</v>
+        <v>0.0003916999999944437</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0005321999999949867</v>
+        <v>0.0003112999999999033</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003274000000033084</v>
+        <v>0.0003792999999987501</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003050000000044406</v>
+        <v>0.0003183000000035463</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0006719999999944548</v>
+        <v>0.0002950000000012665</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003602000000029193</v>
+        <v>0.0005006000000022937</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.000347200000000214</v>
+        <v>0.0003366000000042391</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0005524000000036722</v>
+        <v>0.0003139999999959286</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003180000000000405</v>
+        <v>0.0005286999999967179</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003360000000043328</v>
+        <v>0.0003326999999941904</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003501999999997452</v>
+        <v>0.0004033999999961679</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003461000000015702</v>
+        <v>0.0003296000000005961</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003163999999955536</v>
+        <v>0.0003297000000017647</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0002957000000023413</v>
+        <v>0.0003151000000016779</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003062999999983163</v>
+        <v>0.0003638999999964199</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002996999999993477</v>
+        <v>0.0003290000000006899</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003132000000007906</v>
+        <v>0.0003521000000006325</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002953999999988355</v>
+        <v>0.0006027999999957956</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003058000000066841</v>
+        <v>0.0003201999999973282</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003328999999965276</v>
+        <v>0.0003142999999994345</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003144000000006031</v>
+        <v>0.0003364000000019018</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.0003301999999933969</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003104999999976599</v>
+        <v>0.0003031999999976165</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003264999999998963</v>
+        <v>0.0003602000000029193</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003102999999953227</v>
+        <v>0.0003039999999998599</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003039000000057968</v>
+        <v>0.0003616999999991322</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003317999999978838</v>
+        <v>0.0005266000000005988</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003101000000000909</v>
+        <v>0.000519400000001724</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003042999999962603</v>
+        <v>0.0004699999999999704</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0006540999999984365</v>
+        <v>0.000506999999998925</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003196000000045274</v>
+        <v>0.0006686999999985233</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003029000000012161</v>
+        <v>0.0005317000000033545</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002904000000043538</v>
+        <v>0.000499200000000144</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003169000000013966</v>
+        <v>0.0007505000000023188</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002939000000026226</v>
+        <v>0.0003282000000055518</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.00028549999999683</v>
+        <v>0.0002870000000001482</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003348999999985836</v>
+        <v>0.000309000000001447</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003099999999989222</v>
+        <v>0.0003770000000002938</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003035000000011223</v>
+        <v>0.0002920000000017353</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002964000000034162</v>
+        <v>0.0003134000000031278</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003296000000005961</v>
+        <v>0.0002910999999983233</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003045999999997662</v>
+        <v>0.0003072000000017283</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003170000000025652</v>
+        <v>0.00031219999999621</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0006185000000016316</v>
+        <v>0.0003001999999980853</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003223000000005527</v>
+        <v>0.0002843999999981861</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.000296999999996217</v>
+        <v>0.0003195000000033588</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0002879999999976235</v>
+        <v>0.0003132000000007906</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003230999999956907</v>
+        <v>0.0002967999999938797</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003048000000021034</v>
+        <v>0.0002913000000006605</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003045999999997662</v>
+        <v>0.0003136999999995282</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0004685999999978208</v>
+        <v>0.0002872999999965486</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003144000000006031</v>
+        <v>0.000290100000000848</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003079999999968663</v>
+        <v>0.0002987999999959357</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003196999999985906</v>
+        <v>0.0003185999999999467</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003098000000036905</v>
+        <v>0.0002957000000023413</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002921999999969671</v>
+        <v>0.0003053999999949042</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002884999999963611</v>
+        <v>0.0005701000000044587</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0005463000000034413</v>
+        <v>0.0003093000000049528</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003262000000034959</v>
+        <v>0.0002885999999975297</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002935999999991168</v>
+        <v>0.0003013999999978978</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003011000000014974</v>
+        <v>0.0003068999999982225</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003333000000012021</v>
+        <v>0.0002909999999971546</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003047000000009348</v>
+        <v>0.0002922999999981357</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003018999999966354</v>
+        <v>0.0002923000000052411</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0005814000000015085</v>
+        <v>0.0003065999999947167</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003211999999948034</v>
+        <v>0.0002943000000001916</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.0002969000000021538</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003163000000014904</v>
+        <v>0.0003190999999986843</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003274000000033084</v>
+        <v>0.0003291999999959216</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003694999999979132</v>
+        <v>0.0003041999999950917</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002940000000037912</v>
+        <v>0.0009030000000009863</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003458999999992329</v>
+        <v>0.0003205999999948972</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003096000000013532</v>
+        <v>0.0003547000000025946</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002897999999973422</v>
+        <v>0.0006539999999972679</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003054000000020096</v>
+        <v>0.0003367999999994709</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003261999999963905</v>
+        <v>0.0002974000000008914</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003044999999985976</v>
+        <v>0.0003528000000017073</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003147000000041089</v>
+        <v>0.0005689999999987094</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0004781999999963205</v>
+        <v>0.0003099000000048591</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003920999999991182</v>
+        <v>0.0002971999999985542</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003041000000010285</v>
+        <v>0.0003182000000023777</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003029000000012161</v>
+        <v>0.0003133000000019592</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003144000000006031</v>
+        <v>0.0003062000000042531</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003040999999939231</v>
+        <v>0.0004041999999984114</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002940999999978544</v>
+        <v>0.0003152999999969097</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003652000000045064</v>
+        <v>0.000317199999997797</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003379999999992833</v>
+        <v>0.0003366000000042391</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003559000000024071</v>
+        <v>0.0003292999999970903</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0005513999999990915</v>
+        <v>0.0003104000000035967</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003394999999954962</v>
+        <v>0.001153399999999749</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0005328999999960615</v>
+        <v>0.00031389999999476</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003400999999954024</v>
+        <v>0.0003078999999956977</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003519999999994639</v>
+        <v>0.0004008000000013112</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d30/N, 0.2.xlsx
+++ b/tests/test1/d30/N, 0.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003840999999979999</v>
+        <v>0.0003452000000123689</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0005662000000015155</v>
+        <v>0.0003901999999982309</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.000317199999997797</v>
+        <v>0.0005024000000020123</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.002946500000007291</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.000499999999995282</v>
+        <v>0.0003272999999950343</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0004269999999948482</v>
+        <v>0.000636100000008355</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003202000000044336</v>
+        <v>0.0003269999999986339</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003916999999944437</v>
+        <v>0.0002987000000018725</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003112999999999033</v>
+        <v>0.0004354000000006408</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003792999999987501</v>
+        <v>0.0003300999999993337</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003183000000035463</v>
+        <v>0.0003080999999980349</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0002950000000012665</v>
+        <v>0.0003051000000056092</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0005006000000022937</v>
+        <v>0.0003269999999986339</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003366000000042391</v>
+        <v>0.0003121000000021468</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003139999999959286</v>
+        <v>0.0003109999999963975</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0005286999999967179</v>
+        <v>0.0002978999999925236</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003326999999941904</v>
+        <v>0.0003231999999968593</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0004033999999961679</v>
+        <v>0.0002984999999995352</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003296000000005961</v>
+        <v>0.0002995999999910737</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003297000000017647</v>
+        <v>0.0003366999999911968</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003151000000016779</v>
+        <v>0.0003176999999965346</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003638999999964199</v>
+        <v>0.0003010000000074342</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003290000000006899</v>
+        <v>0.001108999999999583</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003521000000006325</v>
+        <v>0.0003169999999954598</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0006027999999957956</v>
+        <v>0.0003111999999987347</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003201999999973282</v>
+        <v>0.000293400000003885</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003142999999994345</v>
+        <v>0.0003308000000004085</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003364000000019018</v>
+        <v>0.0002956000000011727</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003301999999933969</v>
+        <v>0.000304900000003272</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003031999999976165</v>
+        <v>0.0003392000000133066</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003602000000029193</v>
+        <v>0.0003154999999992469</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003039999999998599</v>
+        <v>0.000292600000008747</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003616999999991322</v>
+        <v>0.0003150000000005093</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0005266000000005988</v>
+        <v>0.0003187000000082207</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.000519400000001724</v>
+        <v>0.0003028000000000475</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0004699999999999704</v>
+        <v>0.0003003000000063594</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.000506999999998925</v>
+        <v>0.0003475000000037198</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0006686999999985233</v>
+        <v>0.0003545999999943206</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0005317000000033545</v>
+        <v>0.0003633999999976822</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.000499200000000144</v>
+        <v>0.000498800000002575</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0007505000000023188</v>
+        <v>0.0006331999999957816</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003282000000055518</v>
+        <v>0.000340099999988297</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002870000000001482</v>
+        <v>0.0003320999999942842</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.000309000000001447</v>
+        <v>0.000328699999997184</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003770000000002938</v>
+        <v>0.0003346999999962463</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.0003049999999973352</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003134000000031278</v>
+        <v>0.000336899999993534</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002910999999983233</v>
+        <v>0.0002988999999899988</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003072000000017283</v>
+        <v>0.0002970000000033224</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.00031219999999621</v>
+        <v>0.0002998000000076217</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003001999999980853</v>
+        <v>0.0003207999999972344</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002843999999981861</v>
+        <v>0.0003035999999951855</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003195000000033588</v>
+        <v>0.0003482999999988579</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003132000000007906</v>
+        <v>0.0003233999999991966</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002967999999938797</v>
+        <v>0.0002954999999928987</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002913000000006605</v>
+        <v>0.0003251999999918098</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003136999999995282</v>
+        <v>0.0003396000000037702</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002872999999965486</v>
+        <v>0.0002910000000042601</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.000290100000000848</v>
+        <v>0.0003382000000016205</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002987999999959357</v>
+        <v>0.001126200000001631</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0003200999999961596</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002957000000023413</v>
+        <v>0.0002955000000071095</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003053999999949042</v>
+        <v>0.0003043000000104712</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0005701000000044587</v>
+        <v>0.0003160999999920477</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003093000000049528</v>
+        <v>0.0003123999999985472</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002885999999975297</v>
+        <v>0.0002978999999925236</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003013999999978978</v>
+        <v>0.0003367000000054077</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.0003001000000040221</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002909999999971546</v>
+        <v>0.0003051999999996724</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002922999999981357</v>
+        <v>0.0003060999999888736</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002923000000052411</v>
+        <v>0.0003185999999999467</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003065999999947167</v>
+        <v>0.0003127000000091584</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002943000000001916</v>
+        <v>0.0002937999999943486</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002969000000021538</v>
+        <v>0.000332000000000221</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003190999999986843</v>
+        <v>0.0003121000000021468</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003291999999959216</v>
+        <v>0.0003002000000122962</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003041999999950917</v>
+        <v>0.001307699999998135</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0009030000000009863</v>
+        <v>0.0003264999999998963</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003205999999948972</v>
+        <v>0.0002934999999979482</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003547000000025946</v>
+        <v>0.0003098000000107959</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0006539999999972679</v>
+        <v>0.0003363000000007332</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003367999999994709</v>
+        <v>0.0003069000000124333</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002974000000008914</v>
+        <v>0.0002993000000088841</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003528000000017073</v>
+        <v>0.0004359999999934416</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0005689999999987094</v>
+        <v>0.0003060999999888736</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003099000000048591</v>
+        <v>0.0003009999999932234</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002971999999985542</v>
+        <v>0.0002969999999891115</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003182000000023777</v>
+        <v>0.0003157999999956473</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003133000000019592</v>
+        <v>0.0002998000000076217</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003062000000042531</v>
+        <v>0.0002994999999970105</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0004041999999984114</v>
+        <v>0.0003181999999952723</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003152999999969097</v>
+        <v>0.0002959999999916363</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.000317199999997797</v>
+        <v>0.0003128999999972848</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003366000000042391</v>
+        <v>0.0005464000000046099</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003292999999970903</v>
+        <v>0.0003329000000036331</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003104000000035967</v>
+        <v>0.0002991000000065469</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.001153399999999749</v>
+        <v>0.0003060000000090213</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.00031389999999476</v>
+        <v>0.0003284999999948468</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003078999999956977</v>
+        <v>0.0003119999999938727</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0004008000000013112</v>
+        <v>0.0003128999999972848</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d30/N, 0.2.xlsx
+++ b/tests/test1/d30/N, 0.2.xlsx
@@ -532,13 +532,13 @@
         <v>359.6471895308065</v>
       </c>
       <c r="F2" t="n">
-        <v>29.86011617754484</v>
+        <v>29.86011617755189</v>
       </c>
       <c r="G2" t="n">
-        <v>94.41043578094326</v>
+        <v>94.41043578094215</v>
       </c>
       <c r="H2" t="n">
-        <v>12.05032922495671</v>
+        <v>12.05032922496042</v>
       </c>
       <c r="I2" t="n">
         <v>30.54452539071436</v>
@@ -547,16 +547,16 @@
         <v>29.33066725219249</v>
       </c>
       <c r="K2" t="n">
-        <v>30.5190775878334</v>
+        <v>30.51907758783388</v>
       </c>
       <c r="L2" t="n">
-        <v>30.33358542753073</v>
+        <v>30.333585427539</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0506352680894086</v>
+        <v>0.05063526808938328</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2737797035750633</v>
+        <v>0.2737797035762418</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003452000000123689</v>
+        <v>0.0004078000000049542</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.6751309272673</v>
       </c>
       <c r="F3" t="n">
-        <v>28.91997263080507</v>
+        <v>28.91997263081305</v>
       </c>
       <c r="G3" t="n">
-        <v>71.08555220003261</v>
+        <v>71.08555220003032</v>
       </c>
       <c r="H3" t="n">
-        <v>11.95802354935452</v>
+        <v>11.95802354935931</v>
       </c>
       <c r="I3" t="n">
         <v>25.33705432792731</v>
@@ -599,16 +599,16 @@
         <v>34.28275889914102</v>
       </c>
       <c r="K3" t="n">
-        <v>25.22290815160054</v>
+        <v>25.222908151601</v>
       </c>
       <c r="L3" t="n">
-        <v>34.21702564463083</v>
+        <v>34.21702564464244</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05171366801702396</v>
+        <v>0.05171366801699064</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1986375434829026</v>
+        <v>0.1986375434833103</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003901999999982309</v>
+        <v>0.0002599000000031992</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.08335156948109022</v>
       </c>
       <c r="F4" t="n">
-        <v>29.23398446313166</v>
+        <v>29.23398446313149</v>
       </c>
       <c r="G4" t="n">
-        <v>97.85742017904431</v>
+        <v>97.857420179041</v>
       </c>
       <c r="H4" t="n">
-        <v>2.896870373303047</v>
+        <v>2.896870373303022</v>
       </c>
       <c r="I4" t="n">
         <v>10.18789668310031</v>
@@ -651,16 +651,16 @@
         <v>28.62860242763599</v>
       </c>
       <c r="K4" t="n">
-        <v>10.09984339031245</v>
+        <v>10.09984339031243</v>
       </c>
       <c r="L4" t="n">
-        <v>26.55384667944412</v>
+        <v>26.55384667944416</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04436952752815845</v>
+        <v>0.04436952752815876</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9400255667871036</v>
+        <v>0.9400255667870455</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0005024000000020123</v>
+        <v>0.0002503999999987627</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.6422743053139</v>
       </c>
       <c r="F5" t="n">
-        <v>29.4414208082011</v>
+        <v>29.44142080820168</v>
       </c>
       <c r="G5" t="n">
-        <v>94.61733155265321</v>
+        <v>94.61733155265361</v>
       </c>
       <c r="H5" t="n">
-        <v>11.73810428925682</v>
+        <v>11.73810428925708</v>
       </c>
       <c r="I5" t="n">
         <v>30.42186793534146</v>
@@ -703,16 +703,16 @@
         <v>29.21316117156715</v>
       </c>
       <c r="K5" t="n">
-        <v>30.32374793278048</v>
+        <v>30.32374793278054</v>
       </c>
       <c r="L5" t="n">
-        <v>29.76249235920039</v>
+        <v>29.76249235920094</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05902245687526735</v>
+        <v>0.0590224568752651</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2212835258603287</v>
+        <v>0.2212835258604008</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.002946500000007291</v>
+        <v>0.0002086000000005583</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9898876585714</v>
       </c>
       <c r="F6" t="n">
-        <v>29.45469838971433</v>
+        <v>29.45469838971372</v>
       </c>
       <c r="G6" t="n">
-        <v>174.6355283355526</v>
+        <v>174.6355283355533</v>
       </c>
       <c r="H6" t="n">
-        <v>9.566684919135231</v>
+        <v>9.566684919135248</v>
       </c>
       <c r="I6" t="n">
         <v>8.399717828514826</v>
@@ -755,16 +755,16 @@
         <v>16.13813378453141</v>
       </c>
       <c r="K6" t="n">
-        <v>8.266001655538179</v>
+        <v>8.266001655538053</v>
       </c>
       <c r="L6" t="n">
-        <v>15.57035068851457</v>
+        <v>15.57035068851392</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0387802006492937</v>
+        <v>0.03878020064929649</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1063474802432854</v>
+        <v>0.1063474802433928</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003272999999950343</v>
+        <v>0.0002068000000008396</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.911754502623</v>
       </c>
       <c r="F7" t="n">
-        <v>28.74394723828578</v>
+        <v>28.74394723829084</v>
       </c>
       <c r="G7" t="n">
-        <v>39.22917202463165</v>
+        <v>39.22917202463238</v>
       </c>
       <c r="H7" t="n">
-        <v>13.09330364190333</v>
+        <v>13.09330364190644</v>
       </c>
       <c r="I7" t="n">
         <v>16.18089193105339</v>
@@ -807,16 +807,16 @@
         <v>41.39368334310793</v>
       </c>
       <c r="K7" t="n">
-        <v>16.11179322087045</v>
+        <v>16.11179322087079</v>
       </c>
       <c r="L7" t="n">
-        <v>39.86417619374404</v>
+        <v>39.86417619375226</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04108969674403685</v>
+        <v>0.04108969674402131</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1631794601357659</v>
+        <v>0.1631794601347517</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.000636100000008355</v>
+        <v>0.0002774000000016486</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.0623567346975076</v>
       </c>
       <c r="F8" t="n">
-        <v>29.22862560559741</v>
+        <v>29.22862560559687</v>
       </c>
       <c r="G8" t="n">
-        <v>164.0648467078002</v>
+        <v>164.0648467078017</v>
       </c>
       <c r="H8" t="n">
-        <v>7.35136511877682</v>
+        <v>7.35136511877694</v>
       </c>
       <c r="I8" t="n">
         <v>11.43325161517759</v>
@@ -859,16 +859,16 @@
         <v>19.8676358558312</v>
       </c>
       <c r="K8" t="n">
-        <v>11.30482500841891</v>
+        <v>11.30482500841882</v>
       </c>
       <c r="L8" t="n">
-        <v>18.48830360110733</v>
+        <v>18.48830360110655</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03870365212637678</v>
+        <v>0.03870365212637914</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3631610044125317</v>
+        <v>0.3631610044126976</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003269999999986339</v>
+        <v>0.0001980000000045834</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.66189485924</v>
       </c>
       <c r="F9" t="n">
-        <v>26.61057726195008</v>
+        <v>26.61057726195007</v>
       </c>
       <c r="G9" t="n">
-        <v>11.47960883242897</v>
+        <v>11.47960883242861</v>
       </c>
       <c r="H9" t="n">
-        <v>15.1480105459497</v>
+        <v>15.14801054595083</v>
       </c>
       <c r="I9" t="n">
         <v>6.405887000684803</v>
@@ -911,16 +911,16 @@
         <v>42.05289827013716</v>
       </c>
       <c r="K9" t="n">
-        <v>6.320987723618617</v>
+        <v>6.32098772361863</v>
       </c>
       <c r="L9" t="n">
-        <v>42.06344845154228</v>
+        <v>42.06344845154363</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0528897916935123</v>
+        <v>0.05288979169350968</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6421996086437887</v>
+        <v>0.6421996086440732</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0002987000000018725</v>
+        <v>0.0001931999999982281</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.981759056676</v>
       </c>
       <c r="F10" t="n">
-        <v>29.21663446384686</v>
+        <v>29.2166344638483</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3959269009319</v>
+        <v>157.3959269009318</v>
       </c>
       <c r="H10" t="n">
-        <v>14.18408817782217</v>
+        <v>14.18408817782307</v>
       </c>
       <c r="I10" t="n">
         <v>35.40628251682527</v>
@@ -963,16 +963,16 @@
         <v>13.7482000025743</v>
       </c>
       <c r="K10" t="n">
-        <v>35.2824570503352</v>
+        <v>35.28245705033556</v>
       </c>
       <c r="L10" t="n">
-        <v>13.33660205386098</v>
+        <v>13.3366020538616</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04603575568602191</v>
+        <v>0.04603575568601392</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1602724258902559</v>
+        <v>0.1602724258899332</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0004354000000006408</v>
+        <v>0.0001931999999982281</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9997782890575</v>
       </c>
       <c r="F11" t="n">
-        <v>29.33103677827282</v>
+        <v>29.33103677827278</v>
       </c>
       <c r="G11" t="n">
-        <v>1.205017347900844</v>
+        <v>1.205017347900768</v>
       </c>
       <c r="H11" t="n">
-        <v>7.63286777726</v>
+        <v>7.632867777259871</v>
       </c>
       <c r="I11" t="n">
         <v>2.283217732932411</v>
@@ -1015,16 +1015,16 @@
         <v>38.23523664126705</v>
       </c>
       <c r="K11" t="n">
-        <v>2.17591186922167</v>
+        <v>2.175911869221657</v>
       </c>
       <c r="L11" t="n">
-        <v>35.89797360791723</v>
+        <v>35.89797360791703</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0438398608987709</v>
+        <v>0.04383986089877125</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5303107618674415</v>
+        <v>0.5303107618674946</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003300999999993337</v>
+        <v>0.0002002000000018711</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.7336826991741</v>
       </c>
       <c r="F12" t="n">
-        <v>28.75511964184802</v>
+        <v>28.75511964184846</v>
       </c>
       <c r="G12" t="n">
-        <v>98.8816000708926</v>
+        <v>98.8816000708872</v>
       </c>
       <c r="H12" t="n">
-        <v>2.436867203021793</v>
+        <v>2.436867203021872</v>
       </c>
       <c r="I12" t="n">
         <v>8.689710829394025</v>
@@ -1067,16 +1067,16 @@
         <v>24.73231265962071</v>
       </c>
       <c r="K12" t="n">
-        <v>8.689793700123596</v>
+        <v>8.68979370012366</v>
       </c>
       <c r="L12" t="n">
-        <v>25.9852534565898</v>
+        <v>25.98525345659051</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04348730474450017</v>
+        <v>0.04348730474449835</v>
       </c>
       <c r="N12" t="n">
-        <v>1.70828038413002</v>
+        <v>1.708280384130164</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003080999999980349</v>
+        <v>0.0004841000000013196</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.650109051739</v>
       </c>
       <c r="F13" t="n">
-        <v>26.88298523388297</v>
+        <v>26.88298523388234</v>
       </c>
       <c r="G13" t="n">
-        <v>16.82470770937179</v>
+        <v>16.82470770937095</v>
       </c>
       <c r="H13" t="n">
-        <v>6.77977591357217</v>
+        <v>6.779775913572222</v>
       </c>
       <c r="I13" t="n">
         <v>6.055750253915085</v>
@@ -1119,16 +1119,16 @@
         <v>30.83028323690103</v>
       </c>
       <c r="K13" t="n">
-        <v>5.986141850805303</v>
+        <v>5.98614185080524</v>
       </c>
       <c r="L13" t="n">
-        <v>32.22934255644093</v>
+        <v>32.22934255644039</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05446768862432017</v>
+        <v>0.05446768862432252</v>
       </c>
       <c r="N13" t="n">
-        <v>3.225126002239665</v>
+        <v>3.225126002239711</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003051000000056092</v>
+        <v>0.000235799999998676</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.905402833702</v>
       </c>
       <c r="F14" t="n">
-        <v>28.80673895572121</v>
+        <v>28.80673895572217</v>
       </c>
       <c r="G14" t="n">
-        <v>26.40698772707128</v>
+        <v>26.40698772707098</v>
       </c>
       <c r="H14" t="n">
-        <v>12.18279292678914</v>
+        <v>12.18279292679009</v>
       </c>
       <c r="I14" t="n">
         <v>11.04565230035812</v>
@@ -1171,16 +1171,16 @@
         <v>40.75574104258677</v>
       </c>
       <c r="K14" t="n">
-        <v>10.98408989984972</v>
+        <v>10.98408989984978</v>
       </c>
       <c r="L14" t="n">
-        <v>40.01738267199211</v>
+        <v>40.01738267199417</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04402141569351097</v>
+        <v>0.04402141569350699</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1427335119512935</v>
+        <v>0.1427335119514035</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003269999999986339</v>
+        <v>0.0002309000000053629</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.1424781324101231</v>
       </c>
       <c r="F15" t="n">
-        <v>29.08579085567406</v>
+        <v>29.08579085567234</v>
       </c>
       <c r="G15" t="n">
-        <v>147.6736484198238</v>
+        <v>147.673648419825</v>
       </c>
       <c r="H15" t="n">
-        <v>6.143860856699785</v>
+        <v>6.143860856699321</v>
       </c>
       <c r="I15" t="n">
         <v>14.48335361376716</v>
@@ -1223,16 +1223,16 @@
         <v>22.72893730129499</v>
       </c>
       <c r="K15" t="n">
-        <v>14.36985454534473</v>
+        <v>14.36985454534449</v>
       </c>
       <c r="L15" t="n">
-        <v>20.89300698828666</v>
+        <v>20.89300698828526</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0384874091900259</v>
+        <v>0.0384874091900315</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4805397377875653</v>
+        <v>0.4805397377875573</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003121000000021468</v>
+        <v>0.0002119999999976585</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.6897321777494</v>
       </c>
       <c r="F16" t="n">
-        <v>29.4512993726188</v>
+        <v>29.45129937261117</v>
       </c>
       <c r="G16" t="n">
-        <v>88.36882633323707</v>
+        <v>88.36882633323624</v>
       </c>
       <c r="H16" t="n">
-        <v>12.61696073215982</v>
+        <v>12.61696073215574</v>
       </c>
       <c r="I16" t="n">
         <v>30.72180748031497</v>
@@ -1275,16 +1275,16 @@
         <v>31.10359375652314</v>
       </c>
       <c r="K16" t="n">
-        <v>30.63179106895756</v>
+        <v>30.63179106895698</v>
       </c>
       <c r="L16" t="n">
-        <v>31.68712125418596</v>
+        <v>31.687121254177</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05498774499409958</v>
+        <v>0.05498774499412942</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2263184068064271</v>
+        <v>0.2263184068052869</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003109999999963975</v>
+        <v>0.0001944999999992092</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.06246569630870719</v>
       </c>
       <c r="F17" t="n">
-        <v>29.17535943557536</v>
+        <v>29.17535943557576</v>
       </c>
       <c r="G17" t="n">
-        <v>157.4952797621653</v>
+        <v>157.4952797621659</v>
       </c>
       <c r="H17" t="n">
-        <v>5.43624248328423</v>
+        <v>5.436242483284466</v>
       </c>
       <c r="I17" t="n">
         <v>10.34172524231339</v>
@@ -1327,16 +1327,16 @@
         <v>22.25264734341951</v>
       </c>
       <c r="K17" t="n">
-        <v>10.21311673460478</v>
+        <v>10.21311673460485</v>
       </c>
       <c r="L17" t="n">
-        <v>20.86283627002503</v>
+        <v>20.86283627002515</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04198420635658522</v>
+        <v>0.04198420635658401</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3945663044491489</v>
+        <v>0.394566304449257</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0002978999999925236</v>
+        <v>0.0004078999999990174</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9744102557732</v>
       </c>
       <c r="F18" t="n">
-        <v>28.42575129592084</v>
+        <v>28.42575129592043</v>
       </c>
       <c r="G18" t="n">
-        <v>40.0357708682339</v>
+        <v>40.03577086823316</v>
       </c>
       <c r="H18" t="n">
-        <v>8.584079729795139</v>
+        <v>8.584079729795141</v>
       </c>
       <c r="I18" t="n">
         <v>13.10617957966178</v>
@@ -1379,16 +1379,16 @@
         <v>36.84819385366504</v>
       </c>
       <c r="K18" t="n">
-        <v>13.00741323155918</v>
+        <v>13.00741323155914</v>
       </c>
       <c r="L18" t="n">
-        <v>34.58357620605711</v>
+        <v>34.58357620605676</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03568181222007661</v>
+        <v>0.03568181222007748</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3180073099734599</v>
+        <v>0.3180073099735</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003231999999968593</v>
+        <v>0.0002210999999974206</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9447468219957</v>
       </c>
       <c r="F19" t="n">
-        <v>28.56478348604605</v>
+        <v>28.5647834860483</v>
       </c>
       <c r="G19" t="n">
-        <v>51.87137097905747</v>
+        <v>51.87137097905749</v>
       </c>
       <c r="H19" t="n">
-        <v>8.986224425124465</v>
+        <v>8.986224425125535</v>
       </c>
       <c r="I19" t="n">
         <v>16.55986375037994</v>
@@ -1431,16 +1431,16 @@
         <v>35.61949574546529</v>
       </c>
       <c r="K19" t="n">
-        <v>16.44668471876444</v>
+        <v>16.44668471876463</v>
       </c>
       <c r="L19" t="n">
-        <v>33.99748921003076</v>
+        <v>33.99748921003395</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04345569238931492</v>
+        <v>0.0434556923893076</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2350354583240314</v>
+        <v>0.235035458323553</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0002984999999995352</v>
+        <v>0.0002007000000006087</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9841143112387</v>
       </c>
       <c r="F20" t="n">
-        <v>28.92720189186551</v>
+        <v>28.9272018918677</v>
       </c>
       <c r="G20" t="n">
-        <v>117.7304693760307</v>
+        <v>117.7304693760302</v>
       </c>
       <c r="H20" t="n">
-        <v>8.661443074882316</v>
+        <v>8.661443074883188</v>
       </c>
       <c r="I20" t="n">
         <v>25.82629642817216</v>
@@ -1483,16 +1483,16 @@
         <v>24.92281376836615</v>
       </c>
       <c r="K20" t="n">
-        <v>25.75938682418412</v>
+        <v>25.75938682418435</v>
       </c>
       <c r="L20" t="n">
-        <v>23.84394474548936</v>
+        <v>23.84394474549139</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0430512029923831</v>
+        <v>0.04305120299237575</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2168638123888228</v>
+        <v>0.2168638123883755</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0002995999999910737</v>
+        <v>0.0001977000000010776</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9557993474635</v>
       </c>
       <c r="F21" t="n">
-        <v>28.3726856362599</v>
+        <v>28.37268563626109</v>
       </c>
       <c r="G21" t="n">
-        <v>16.82086520550847</v>
+        <v>16.820865205509</v>
       </c>
       <c r="H21" t="n">
-        <v>11.74037564001721</v>
+        <v>11.74037564001772</v>
       </c>
       <c r="I21" t="n">
         <v>7.677292830157072</v>
@@ -1535,16 +1535,16 @@
         <v>41.64062699719003</v>
       </c>
       <c r="K21" t="n">
-        <v>7.584922197671533</v>
+        <v>7.584922197671622</v>
       </c>
       <c r="L21" t="n">
-        <v>39.58836546150123</v>
+        <v>39.58836546150299</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0412410744061117</v>
+        <v>0.0412410744061082</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2049121511786435</v>
+        <v>0.2049121511784334</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003366999999911968</v>
+        <v>0.0001912999999973408</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.8232213774765</v>
       </c>
       <c r="F22" t="n">
-        <v>29.15700054294257</v>
+        <v>29.15700054294661</v>
       </c>
       <c r="G22" t="n">
-        <v>104.3538798482504</v>
+        <v>104.3538798482498</v>
       </c>
       <c r="H22" t="n">
-        <v>13.48488835431588</v>
+        <v>13.48488835431824</v>
       </c>
       <c r="I22" t="n">
         <v>36.73913688060643</v>
@@ -1587,16 +1587,16 @@
         <v>28.53374266718802</v>
       </c>
       <c r="K22" t="n">
-        <v>36.64228383924265</v>
+        <v>36.64228383924292</v>
       </c>
       <c r="L22" t="n">
-        <v>28.07762878985871</v>
+        <v>28.07762878986318</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04330059115762682</v>
+        <v>0.043300591157614</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1408157537029354</v>
+        <v>0.1408157537021966</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003176999999965346</v>
+        <v>0.0002380999999971323</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.01039284990110188</v>
       </c>
       <c r="F23" t="n">
-        <v>29.64967569742576</v>
+        <v>29.64967569742604</v>
       </c>
       <c r="G23" t="n">
-        <v>9.048613680050829</v>
+        <v>9.048613680051542</v>
       </c>
       <c r="H23" t="n">
-        <v>5.590207783488672</v>
+        <v>5.590207783488062</v>
       </c>
       <c r="I23" t="n">
         <v>3.841879221367843</v>
@@ -1639,16 +1639,16 @@
         <v>35.13499912840096</v>
       </c>
       <c r="K23" t="n">
-        <v>3.79201363095475</v>
+        <v>3.792013630954737</v>
       </c>
       <c r="L23" t="n">
-        <v>33.73192905581729</v>
+        <v>33.73192905581683</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04245695937771708</v>
+        <v>0.04245695937771733</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4256981369599786</v>
+        <v>0.4256981369602533</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003010000000074342</v>
+        <v>0.0001965000000012651</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.01838998397303894</v>
       </c>
       <c r="F24" t="n">
-        <v>28.9438581187033</v>
+        <v>28.94385811870397</v>
       </c>
       <c r="G24" t="n">
-        <v>39.47667238877278</v>
+        <v>39.47667238877175</v>
       </c>
       <c r="H24" t="n">
-        <v>7.701152490233271</v>
+        <v>7.701152490233841</v>
       </c>
       <c r="I24" t="n">
         <v>11.9862826901246</v>
@@ -1691,16 +1691,16 @@
         <v>36.5366037130493</v>
       </c>
       <c r="K24" t="n">
-        <v>11.90621958739543</v>
+        <v>11.90621958739548</v>
       </c>
       <c r="L24" t="n">
-        <v>34.19644715017164</v>
+        <v>34.19644715017297</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04656815768861149</v>
+        <v>0.04656815768860862</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4828416464570469</v>
+        <v>0.4828416464567833</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.001108999999999583</v>
+        <v>0.0002460999999982505</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.8666023887293</v>
       </c>
       <c r="F25" t="n">
-        <v>28.92334272025624</v>
+        <v>28.92334272026486</v>
       </c>
       <c r="G25" t="n">
-        <v>92.02564543393105</v>
+        <v>92.02564543393146</v>
       </c>
       <c r="H25" t="n">
-        <v>13.95088016488956</v>
+        <v>13.95088016489473</v>
       </c>
       <c r="I25" t="n">
         <v>34.79974963322789</v>
@@ -1743,16 +1743,16 @@
         <v>32.20772710025805</v>
       </c>
       <c r="K25" t="n">
-        <v>34.74167870840392</v>
+        <v>34.74167870840455</v>
       </c>
       <c r="L25" t="n">
-        <v>31.29393815075385</v>
+        <v>31.29393815076419</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04002610586612479</v>
+        <v>0.04002610586609968</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1608293784195977</v>
+        <v>0.1608293784179957</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003169999999954598</v>
+        <v>0.0002232000000006451</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.7341575654701</v>
       </c>
       <c r="F26" t="n">
-        <v>29.26393431614734</v>
+        <v>29.26393431614757</v>
       </c>
       <c r="G26" t="n">
         <v>169.4732156788865</v>
       </c>
       <c r="H26" t="n">
-        <v>9.726694809227872</v>
+        <v>9.726694809228027</v>
       </c>
       <c r="I26" t="n">
         <v>11.78642545097189</v>
@@ -1795,16 +1795,16 @@
         <v>14.11601099751434</v>
       </c>
       <c r="K26" t="n">
-        <v>11.79121566316648</v>
+        <v>11.79121566316653</v>
       </c>
       <c r="L26" t="n">
-        <v>15.4987104346452</v>
+        <v>15.49871043464525</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04634693606263319</v>
+        <v>0.04634693606263258</v>
       </c>
       <c r="N26" t="n">
-        <v>0.613556024684882</v>
+        <v>0.6135560246848615</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003111999999987347</v>
+        <v>0.0001970000000000027</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9543453820668</v>
       </c>
       <c r="F27" t="n">
-        <v>29.54637555546217</v>
+        <v>29.54637555545913</v>
       </c>
       <c r="G27" t="n">
-        <v>156.2638107601816</v>
+        <v>156.2638107601839</v>
       </c>
       <c r="H27" t="n">
-        <v>9.739111511602131</v>
+        <v>9.739111511601147</v>
       </c>
       <c r="I27" t="n">
         <v>19.88592121432799</v>
@@ -1847,16 +1847,16 @@
         <v>17.42150158735378</v>
       </c>
       <c r="K27" t="n">
-        <v>19.82324576330834</v>
+        <v>19.82324576330792</v>
       </c>
       <c r="L27" t="n">
-        <v>17.25410689217141</v>
+        <v>17.25410689216909</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04454811175595551</v>
+        <v>0.04454811175596708</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1027780656452101</v>
+        <v>0.1027780656457278</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.000293400000003885</v>
+        <v>0.0002446999999961008</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.960801357668</v>
       </c>
       <c r="F28" t="n">
-        <v>28.79286995501093</v>
+        <v>28.79286995501328</v>
       </c>
       <c r="G28" t="n">
-        <v>55.29747997114995</v>
+        <v>55.29747997115135</v>
       </c>
       <c r="H28" t="n">
-        <v>8.756428424382026</v>
+        <v>8.756428424382841</v>
       </c>
       <c r="I28" t="n">
         <v>16.99876366455218</v>
@@ -1899,16 +1899,16 @@
         <v>35.20863709983118</v>
       </c>
       <c r="K28" t="n">
-        <v>16.9306347746113</v>
+        <v>16.93063477461151</v>
       </c>
       <c r="L28" t="n">
-        <v>33.61567734784049</v>
+        <v>33.61567734784333</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04072603347857306</v>
+        <v>0.04072603347856647</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2246709044267297</v>
+        <v>0.2246709044262827</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003308000000004085</v>
+        <v>0.0002000000000066393</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.7428789169535</v>
       </c>
       <c r="F29" t="n">
-        <v>29.01056408827285</v>
+        <v>29.01056408825277</v>
       </c>
       <c r="G29" t="n">
-        <v>74.0047254959328</v>
+        <v>74.00472549593265</v>
       </c>
       <c r="H29" t="n">
-        <v>12.87738652692939</v>
+        <v>12.87738652691779</v>
       </c>
       <c r="I29" t="n">
         <v>27.47750858341173</v>
@@ -1951,16 +1951,16 @@
         <v>34.86118304053818</v>
       </c>
       <c r="K29" t="n">
-        <v>27.40933945736273</v>
+        <v>27.40933945736138</v>
       </c>
       <c r="L29" t="n">
-        <v>34.52819351087098</v>
+        <v>34.52819351084367</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04831375046517693</v>
+        <v>0.0483137504652504</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1186258152729864</v>
+        <v>0.1186258152723611</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002956000000011727</v>
+        <v>0.0002096999999992022</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.910733524426</v>
       </c>
       <c r="F30" t="n">
-        <v>29.31413253416212</v>
+        <v>29.31413253416441</v>
       </c>
       <c r="G30" t="n">
-        <v>129.9313298112407</v>
+        <v>129.9313298112379</v>
       </c>
       <c r="H30" t="n">
-        <v>9.427655127734541</v>
+        <v>9.427655127735379</v>
       </c>
       <c r="I30" t="n">
         <v>26.83056082492117</v>
@@ -2003,16 +2003,16 @@
         <v>22.06038522110382</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75768453477604</v>
+        <v>26.7576845347762</v>
       </c>
       <c r="L30" t="n">
-        <v>21.76699127650278</v>
+        <v>21.76699127650513</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04053115058276117</v>
+        <v>0.0405311505827539</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1515604147306176</v>
+        <v>0.1515604147302516</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.000304900000003272</v>
+        <v>0.0001925999999983219</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.08349642526091273</v>
       </c>
       <c r="F31" t="n">
-        <v>29.2335813754794</v>
+        <v>29.23358137547804</v>
       </c>
       <c r="G31" t="n">
-        <v>159.2204013671926</v>
+        <v>159.2204013671927</v>
       </c>
       <c r="H31" t="n">
-        <v>6.67156322472148</v>
+        <v>6.671563224720942</v>
       </c>
       <c r="I31" t="n">
         <v>12.09819807108279</v>
@@ -2055,16 +2055,16 @@
         <v>20.83865222468982</v>
       </c>
       <c r="K31" t="n">
-        <v>11.96184157726145</v>
+        <v>11.96184157726123</v>
       </c>
       <c r="L31" t="n">
-        <v>19.55673558892698</v>
+        <v>19.55673558892617</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04320437020753094</v>
+        <v>0.04320437020753626</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3286238481051529</v>
+        <v>0.3286238481050678</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003392000000133066</v>
+        <v>0.0001891999999941163</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.2528105329552826</v>
       </c>
       <c r="F32" t="n">
-        <v>27.85393726118018</v>
+        <v>27.85393726118429</v>
       </c>
       <c r="G32" t="n">
-        <v>125.3213071379994</v>
+        <v>125.3213071379942</v>
       </c>
       <c r="H32" t="n">
-        <v>6.92080157258737</v>
+        <v>6.920801572588646</v>
       </c>
       <c r="I32" t="n">
         <v>21.74625583611728</v>
@@ -2107,16 +2107,16 @@
         <v>25.20335661415189</v>
       </c>
       <c r="K32" t="n">
-        <v>21.54786326365</v>
+        <v>21.54786326365045</v>
       </c>
       <c r="L32" t="n">
-        <v>21.97124439824955</v>
+        <v>21.97124439825375</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04708514350994575</v>
+        <v>0.04708514350992709</v>
       </c>
       <c r="N32" t="n">
-        <v>0.7118114566961077</v>
+        <v>0.711811456695173</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003154999999992469</v>
+        <v>0.0002441999999973632</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.08295144285031669</v>
       </c>
       <c r="F33" t="n">
-        <v>27.95933492595768</v>
+        <v>27.95933492595845</v>
       </c>
       <c r="G33" t="n">
-        <v>51.59194506482214</v>
+        <v>51.59194506482217</v>
       </c>
       <c r="H33" t="n">
-        <v>13.01317568691796</v>
+        <v>13.01317568691846</v>
       </c>
       <c r="I33" t="n">
         <v>21.14835897576047</v>
@@ -2159,16 +2159,16 @@
         <v>40.97552889614518</v>
       </c>
       <c r="K33" t="n">
-        <v>20.99329824809131</v>
+        <v>20.99329824809136</v>
       </c>
       <c r="L33" t="n">
-        <v>37.53593755618952</v>
+        <v>37.53593755619076</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04379045858713056</v>
+        <v>0.04379045858712805</v>
       </c>
       <c r="N33" t="n">
-        <v>0.4371519189990856</v>
+        <v>0.4371519189989357</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.000292600000008747</v>
+        <v>0.0001990999999961218</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.06977889019788849</v>
       </c>
       <c r="F34" t="n">
-        <v>28.86598838908036</v>
+        <v>28.86598838907997</v>
       </c>
       <c r="G34" t="n">
-        <v>158.0944164568706</v>
+        <v>158.0944164568704</v>
       </c>
       <c r="H34" t="n">
-        <v>7.553738556062017</v>
+        <v>7.553738556061805</v>
       </c>
       <c r="I34" t="n">
         <v>14.58268277756131</v>
@@ -2211,16 +2211,16 @@
         <v>19.92527519173688</v>
       </c>
       <c r="K34" t="n">
-        <v>14.42093017695949</v>
+        <v>14.42093017695942</v>
       </c>
       <c r="L34" t="n">
-        <v>18.41994609729057</v>
+        <v>18.41994609729041</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04346732348039816</v>
+        <v>0.04346732348039964</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2808791214006751</v>
+        <v>0.2808791214006264</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0001964000000000965</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.06377070102162243</v>
       </c>
       <c r="F35" t="n">
-        <v>28.6783271539072</v>
+        <v>28.67832715390795</v>
       </c>
       <c r="G35" t="n">
-        <v>47.21113504822102</v>
+        <v>47.21113504822113</v>
       </c>
       <c r="H35" t="n">
-        <v>7.252914724176975</v>
+        <v>7.252914724177268</v>
       </c>
       <c r="I35" t="n">
         <v>13.45458804417072</v>
@@ -2263,16 +2263,16 @@
         <v>35.519141243874</v>
       </c>
       <c r="K35" t="n">
-        <v>13.3528582676577</v>
+        <v>13.35285826765776</v>
       </c>
       <c r="L35" t="n">
-        <v>32.86262222980975</v>
+        <v>32.86262222981075</v>
       </c>
       <c r="M35" t="n">
-        <v>0.04028514078395255</v>
+        <v>0.04028514078395037</v>
       </c>
       <c r="N35" t="n">
-        <v>0.5533858683132811</v>
+        <v>0.5533858683131359</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003187000000082207</v>
+        <v>0.0001917999999960784</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9512329798744</v>
       </c>
       <c r="F36" t="n">
-        <v>28.75327327482316</v>
+        <v>28.75327327482289</v>
       </c>
       <c r="G36" t="n">
-        <v>6.701715972824966</v>
+        <v>6.701715972824814</v>
       </c>
       <c r="H36" t="n">
-        <v>11.69163966152593</v>
+        <v>11.69163966152611</v>
       </c>
       <c r="I36" t="n">
         <v>4.025126671418751</v>
@@ -2315,16 +2315,16 @@
         <v>42.21249127823732</v>
       </c>
       <c r="K36" t="n">
-        <v>3.973316105564062</v>
+        <v>3.97331610556405</v>
       </c>
       <c r="L36" t="n">
-        <v>40.16754892909094</v>
+        <v>40.16754892909089</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04028081687430007</v>
+        <v>0.04028081687430025</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2350941037800837</v>
+        <v>0.2350941037800597</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003028000000000475</v>
+        <v>0.000201300000000515</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.3779473420175646</v>
       </c>
       <c r="F37" t="n">
-        <v>27.7852451225828</v>
+        <v>27.78524512258146</v>
       </c>
       <c r="G37" t="n">
-        <v>102.8480698147027</v>
+        <v>102.8480698147094</v>
       </c>
       <c r="H37" t="n">
-        <v>5.302702925157501</v>
+        <v>5.302702925157077</v>
       </c>
       <c r="I37" t="n">
         <v>17.81803300985169</v>
@@ -2367,16 +2367,16 @@
         <v>29.87298333979204</v>
       </c>
       <c r="K37" t="n">
-        <v>17.64967301259268</v>
+        <v>17.64967301259258</v>
       </c>
       <c r="L37" t="n">
-        <v>24.92664867913854</v>
+        <v>24.92664867913646</v>
       </c>
       <c r="M37" t="n">
-        <v>0.058377709905203</v>
+        <v>0.05837770990521111</v>
       </c>
       <c r="N37" t="n">
-        <v>1.349446426160688</v>
+        <v>1.349446426161153</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003003000000063594</v>
+        <v>0.000243599999997457</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.8647173468491</v>
       </c>
       <c r="F38" t="n">
-        <v>29.248626330858</v>
+        <v>29.24862633086105</v>
       </c>
       <c r="G38" t="n">
-        <v>129.3259185835156</v>
+        <v>129.3259185835149</v>
       </c>
       <c r="H38" t="n">
-        <v>9.872995054261628</v>
+        <v>9.872995054262946</v>
       </c>
       <c r="I38" t="n">
         <v>28.31386058767408</v>
@@ -2419,16 +2419,16 @@
         <v>21.94213719690333</v>
       </c>
       <c r="K38" t="n">
-        <v>28.22779292625888</v>
+        <v>28.22779292625923</v>
       </c>
       <c r="L38" t="n">
-        <v>21.70532053034736</v>
+        <v>21.70532053034989</v>
       </c>
       <c r="M38" t="n">
-        <v>0.04846968564136259</v>
+        <v>0.04846968564135162</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1693743165539975</v>
+        <v>0.1693743165534156</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003475000000037198</v>
+        <v>0.0005931000000032327</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.01089272246750185</v>
       </c>
       <c r="F39" t="n">
-        <v>29.47585259244171</v>
+        <v>29.47585259244298</v>
       </c>
       <c r="G39" t="n">
-        <v>170.5952573484946</v>
+        <v>170.5952573484934</v>
       </c>
       <c r="H39" t="n">
-        <v>8.517286025713659</v>
+        <v>8.517286025713826</v>
       </c>
       <c r="I39" t="n">
         <v>9.715176392221503</v>
@@ -2471,16 +2471,16 @@
         <v>17.50763382333646</v>
       </c>
       <c r="K39" t="n">
-        <v>9.629003268667422</v>
+        <v>9.629003268667651</v>
       </c>
       <c r="L39" t="n">
-        <v>17.01585506232096</v>
+        <v>17.01585506232209</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04035533233106441</v>
+        <v>0.04035533233105897</v>
       </c>
       <c r="N39" t="n">
-        <v>0.09814481314492865</v>
+        <v>0.09814481314468571</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003545999999943206</v>
+        <v>0.0002588000000045554</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.7982588703766</v>
       </c>
       <c r="F40" t="n">
-        <v>28.86298306335945</v>
+        <v>28.86298306336767</v>
       </c>
       <c r="G40" t="n">
-        <v>67.60332224682887</v>
+        <v>67.60332224682894</v>
       </c>
       <c r="H40" t="n">
-        <v>13.17280973293984</v>
+        <v>13.17280973294478</v>
       </c>
       <c r="I40" t="n">
         <v>25.99804240757942</v>
@@ -2523,16 +2523,16 @@
         <v>36.76281015298541</v>
       </c>
       <c r="K40" t="n">
-        <v>25.92108944579793</v>
+        <v>25.92108944579846</v>
       </c>
       <c r="L40" t="n">
-        <v>35.87883601088613</v>
+        <v>35.87883601089793</v>
       </c>
       <c r="M40" t="n">
-        <v>0.04757044280940897</v>
+        <v>0.04757044280937996</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1276846805192492</v>
+        <v>0.1276846805176496</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003633999999976822</v>
+        <v>0.000233399999999051</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.7190320867956</v>
       </c>
       <c r="F41" t="n">
-        <v>29.2604634509663</v>
+        <v>29.26046345095408</v>
       </c>
       <c r="G41" t="n">
-        <v>95.28553376880566</v>
+        <v>95.28553376880556</v>
       </c>
       <c r="H41" t="n">
-        <v>12.60558359276048</v>
+        <v>12.60558359275382</v>
       </c>
       <c r="I41" t="n">
         <v>32.60101457491432</v>
@@ -2575,16 +2575,16 @@
         <v>29.87603008831807</v>
       </c>
       <c r="K41" t="n">
-        <v>32.50506692173063</v>
+        <v>32.5050669217297</v>
       </c>
       <c r="L41" t="n">
-        <v>29.94067914428198</v>
+        <v>29.94067914426807</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05144946964308551</v>
+        <v>0.05144946964313095</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1125787258380152</v>
+        <v>0.112578725836153</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.000498800000002575</v>
+        <v>0.0003133000000019592</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.1215095394422438</v>
       </c>
       <c r="F42" t="n">
-        <v>29.14332372475009</v>
+        <v>29.14332372474916</v>
       </c>
       <c r="G42" t="n">
-        <v>89.1281386674393</v>
+        <v>89.12813866742923</v>
       </c>
       <c r="H42" t="n">
-        <v>3.078380787055035</v>
+        <v>3.078380787054955</v>
       </c>
       <c r="I42" t="n">
         <v>10.64650715668175</v>
@@ -2627,16 +2627,16 @@
         <v>29.14275992229884</v>
       </c>
       <c r="K42" t="n">
-        <v>10.49791926536182</v>
+        <v>10.4979192653617</v>
       </c>
       <c r="L42" t="n">
-        <v>27.03564085605583</v>
+        <v>27.03564085605553</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04205282012324109</v>
+        <v>0.04205282012324305</v>
       </c>
       <c r="N42" t="n">
-        <v>0.9510657882063041</v>
+        <v>0.9510657882061528</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0006331999999957816</v>
+        <v>0.0002451000000007753</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.05414246461346952</v>
       </c>
       <c r="F43" t="n">
-        <v>29.0471425547796</v>
+        <v>29.04714255477952</v>
       </c>
       <c r="G43" t="n">
-        <v>56.16878931862681</v>
+        <v>56.16878931862638</v>
       </c>
       <c r="H43" t="n">
-        <v>2.642121198464779</v>
+        <v>2.642121198464781</v>
       </c>
       <c r="I43" t="n">
         <v>7.857823052148743</v>
@@ -2679,16 +2679,16 @@
         <v>30.6778780234648</v>
       </c>
       <c r="K43" t="n">
-        <v>7.738654399019603</v>
+        <v>7.738654399019589</v>
       </c>
       <c r="L43" t="n">
-        <v>28.4551152170311</v>
+        <v>28.45511521703104</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04173158692850736</v>
+        <v>0.0417315869285077</v>
       </c>
       <c r="N43" t="n">
-        <v>1.066614491821566</v>
+        <v>1.066614491821556</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.000340099999988297</v>
+        <v>0.0002065999999985024</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.9006571693977</v>
       </c>
       <c r="F44" t="n">
-        <v>28.73982002544295</v>
+        <v>28.73982002544323</v>
       </c>
       <c r="G44" t="n">
-        <v>66.79744380510671</v>
+        <v>66.79744380510594</v>
       </c>
       <c r="H44" t="n">
-        <v>13.86247564535418</v>
+        <v>13.86247564535454</v>
       </c>
       <c r="I44" t="n">
         <v>26.73093662596029</v>
@@ -2731,16 +2731,16 @@
         <v>38.09464111448521</v>
       </c>
       <c r="K44" t="n">
-        <v>26.66520942705372</v>
+        <v>26.6652094270537</v>
       </c>
       <c r="L44" t="n">
-        <v>36.56635823254347</v>
+        <v>36.5663582325442</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04172976202316993</v>
+        <v>0.0417297620231683</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1935416005132852</v>
+        <v>0.1935416005132167</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003320999999942842</v>
+        <v>0.0002215999999961582</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.948520014931</v>
       </c>
       <c r="F45" t="n">
-        <v>28.43290320411624</v>
+        <v>28.43290320411548</v>
       </c>
       <c r="G45" t="n">
-        <v>19.66837581153148</v>
+        <v>19.66837581153246</v>
       </c>
       <c r="H45" t="n">
-        <v>10.08782993925987</v>
+        <v>10.08782993925842</v>
       </c>
       <c r="I45" t="n">
         <v>8.101473937905466</v>
@@ -2783,16 +2783,16 @@
         <v>39.34753971841504</v>
       </c>
       <c r="K45" t="n">
-        <v>7.983345076906456</v>
+        <v>7.98334507690638</v>
       </c>
       <c r="L45" t="n">
-        <v>37.57985940055001</v>
+        <v>37.57985940054752</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04131869653835341</v>
+        <v>0.04131869653835769</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1840303973540827</v>
+        <v>0.184030397354536</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.000328699999997184</v>
+        <v>0.0001970000000000027</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.1501229434511689</v>
       </c>
       <c r="F46" t="n">
-        <v>29.71598480232968</v>
+        <v>29.71598480232875</v>
       </c>
       <c r="G46" t="n">
-        <v>160.8126475810037</v>
+        <v>160.8126475810062</v>
       </c>
       <c r="H46" t="n">
-        <v>5.319952686208301</v>
+        <v>5.319952686208373</v>
       </c>
       <c r="I46" t="n">
         <v>9.169296382417432</v>
@@ -2835,16 +2835,16 @@
         <v>23.24401613042153</v>
       </c>
       <c r="K46" t="n">
-        <v>9.024550734712674</v>
+        <v>9.024550734712534</v>
       </c>
       <c r="L46" t="n">
-        <v>21.33430458199539</v>
+        <v>21.33430458199427</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04431238952323278</v>
+        <v>0.04431238952323718</v>
       </c>
       <c r="N46" t="n">
-        <v>1.060477206497639</v>
+        <v>1.060477206497858</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003346999999962463</v>
+        <v>0.0002685000000042237</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9947250454301</v>
       </c>
       <c r="F47" t="n">
-        <v>29.41297889654297</v>
+        <v>29.41297889654316</v>
       </c>
       <c r="G47" t="n">
-        <v>178.5077167794993</v>
+        <v>178.5077167794992</v>
       </c>
       <c r="H47" t="n">
-        <v>9.658033797644293</v>
+        <v>9.658033797644391</v>
       </c>
       <c r="I47" t="n">
         <v>5.639587406824457</v>
@@ -2887,16 +2887,16 @@
         <v>15.9542760494317</v>
       </c>
       <c r="K47" t="n">
-        <v>5.518374920747956</v>
+        <v>5.518374920747994</v>
       </c>
       <c r="L47" t="n">
-        <v>15.2817310331908</v>
+        <v>15.28173103319086</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03905457241426273</v>
+        <v>0.039054572414262</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1292468936190002</v>
+        <v>0.1292468936190103</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003049999999973352</v>
+        <v>0.0002473000000051684</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.8830248320259</v>
       </c>
       <c r="F48" t="n">
-        <v>29.5657983061489</v>
+        <v>29.56579830614666</v>
       </c>
       <c r="G48" t="n">
-        <v>139.7617086250972</v>
+        <v>139.7617086250989</v>
       </c>
       <c r="H48" t="n">
-        <v>10.36324648754911</v>
+        <v>10.36324648754823</v>
       </c>
       <c r="I48" t="n">
         <v>27.70526304933168</v>
@@ -2939,16 +2939,16 @@
         <v>19.73114991147893</v>
       </c>
       <c r="K48" t="n">
-        <v>27.64476935311158</v>
+        <v>27.64476935311138</v>
       </c>
       <c r="L48" t="n">
-        <v>19.70584675513262</v>
+        <v>19.7058467551307</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04427738867693354</v>
+        <v>0.04427738867694073</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1104461624265248</v>
+        <v>0.1104461624269007</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.000336899999993534</v>
+        <v>0.0002118999999964899</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.1696018951532245</v>
       </c>
       <c r="F49" t="n">
-        <v>28.85826668583678</v>
+        <v>28.85826668583643</v>
       </c>
       <c r="G49" t="n">
-        <v>21.74751309207964</v>
+        <v>21.74751309207918</v>
       </c>
       <c r="H49" t="n">
-        <v>11.70748007138662</v>
+        <v>11.70748007138676</v>
       </c>
       <c r="I49" t="n">
         <v>9.471004277713373</v>
@@ -2991,16 +2991,16 @@
         <v>44.51408920100896</v>
       </c>
       <c r="K49" t="n">
-        <v>9.338545066066585</v>
+        <v>9.338545066066548</v>
       </c>
       <c r="L49" t="n">
-        <v>39.81855110049028</v>
+        <v>39.81855110049011</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0439747329092902</v>
+        <v>0.04397473290929058</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7500031418591728</v>
+        <v>0.7500031418591513</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002988999999899988</v>
+        <v>0.0001929000000018277</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.1987262639856959</v>
       </c>
       <c r="F50" t="n">
-        <v>30.38943978190111</v>
+        <v>30.38943978190096</v>
       </c>
       <c r="G50" t="n">
-        <v>2.117924991419967</v>
+        <v>2.117924991419916</v>
       </c>
       <c r="H50" t="n">
-        <v>8.666182636126415</v>
+        <v>8.666182636126495</v>
       </c>
       <c r="I50" t="n">
         <v>2.710210794565153</v>
@@ -3046,13 +3046,13 @@
         <v>2.490789303009066</v>
       </c>
       <c r="L50" t="n">
-        <v>38.20130142925366</v>
+        <v>38.20130142925361</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04723304617743131</v>
+        <v>0.04723304617743145</v>
       </c>
       <c r="N50" t="n">
-        <v>1.213646659470659</v>
+        <v>1.213646659470647</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002970000000033224</v>
+        <v>0.0001978999999963094</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.2086318156413209</v>
       </c>
       <c r="F51" t="n">
-        <v>28.56296570717963</v>
+        <v>28.56296570718096</v>
       </c>
       <c r="G51" t="n">
-        <v>66.80209537336495</v>
+        <v>66.80209537336634</v>
       </c>
       <c r="H51" t="n">
-        <v>4.371316796009342</v>
+        <v>4.371316796009626</v>
       </c>
       <c r="I51" t="n">
         <v>12.45544517658499</v>
@@ -3095,16 +3095,16 @@
         <v>32.33427654125745</v>
       </c>
       <c r="K51" t="n">
-        <v>12.27691869471888</v>
+        <v>12.27691869471902</v>
       </c>
       <c r="L51" t="n">
-        <v>28.66829772569127</v>
+        <v>28.66829772569266</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04210916336232442</v>
+        <v>0.04210916336232032</v>
       </c>
       <c r="N51" t="n">
-        <v>1.21715810374391</v>
+        <v>1.217158103743719</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002998000000076217</v>
+        <v>0.0002414000000001693</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.3120704217367269</v>
       </c>
       <c r="F52" t="n">
-        <v>28.17190883330827</v>
+        <v>28.17190883330662</v>
       </c>
       <c r="G52" t="n">
-        <v>108.7427648384267</v>
+        <v>108.7427648384402</v>
       </c>
       <c r="H52" t="n">
-        <v>4.86628015106923</v>
+        <v>4.866280151068869</v>
       </c>
       <c r="I52" t="n">
         <v>16.32338387411448</v>
@@ -3147,16 +3147,16 @@
         <v>28.65547033479784</v>
       </c>
       <c r="K52" t="n">
-        <v>16.14296623069406</v>
+        <v>16.14296623069396</v>
       </c>
       <c r="L52" t="n">
-        <v>24.65072464406334</v>
+        <v>24.65072464406041</v>
       </c>
       <c r="M52" t="n">
-        <v>0.05058082090837859</v>
+        <v>0.05058082090838775</v>
       </c>
       <c r="N52" t="n">
-        <v>1.150321829840766</v>
+        <v>1.150321829841459</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003207999999972344</v>
+        <v>0.0002099000000015394</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.05810063466972768</v>
       </c>
       <c r="F53" t="n">
-        <v>28.93858418228658</v>
+        <v>28.93858418228717</v>
       </c>
       <c r="G53" t="n">
-        <v>127.631324595935</v>
+        <v>127.6313245959361</v>
       </c>
       <c r="H53" t="n">
-        <v>3.431819274093034</v>
+        <v>3.431819274093203</v>
       </c>
       <c r="I53" t="n">
         <v>10.7663770508881</v>
@@ -3199,16 +3199,16 @@
         <v>25.60870945161991</v>
       </c>
       <c r="K53" t="n">
-        <v>10.61330540185106</v>
+        <v>10.61330540185114</v>
       </c>
       <c r="L53" t="n">
-        <v>24.22211108048516</v>
+        <v>24.22211108048559</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04080932431020241</v>
+        <v>0.04080932431020057</v>
       </c>
       <c r="N53" t="n">
-        <v>0.3525342004906998</v>
+        <v>0.3525342004905671</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003035999999951855</v>
+        <v>0.0001911999999961722</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.8961048318772</v>
       </c>
       <c r="F54" t="n">
-        <v>29.35407396452475</v>
+        <v>29.3540739645248</v>
       </c>
       <c r="G54" t="n">
-        <v>136.5844565139959</v>
+        <v>136.5844565139915</v>
       </c>
       <c r="H54" t="n">
-        <v>2.660761454587255</v>
+        <v>2.660761454587103</v>
       </c>
       <c r="I54" t="n">
         <v>7.752335685709725</v>
@@ -3251,16 +3251,16 @@
         <v>24.22727636912567</v>
       </c>
       <c r="K54" t="n">
-        <v>7.723441674937464</v>
+        <v>7.723441674937478</v>
       </c>
       <c r="L54" t="n">
-        <v>24.6419122818778</v>
+        <v>24.64191228187816</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03860317401812354</v>
+        <v>0.03860317401812288</v>
       </c>
       <c r="N54" t="n">
-        <v>0.8175658277733621</v>
+        <v>0.8175658277736044</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003482999999988579</v>
+        <v>0.0001882000000037465</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.9588270266299</v>
       </c>
       <c r="F55" t="n">
-        <v>29.11363807950973</v>
+        <v>29.11363807951079</v>
       </c>
       <c r="G55" t="n">
-        <v>152.429208535898</v>
+        <v>152.4292085358962</v>
       </c>
       <c r="H55" t="n">
-        <v>9.372526250165931</v>
+        <v>9.372526250166111</v>
       </c>
       <c r="I55" t="n">
         <v>21.12954030412948</v>
@@ -3303,16 +3303,16 @@
         <v>18.25980426170813</v>
       </c>
       <c r="K55" t="n">
-        <v>21.03281008394192</v>
+        <v>21.03281008394201</v>
       </c>
       <c r="L55" t="n">
-        <v>17.70719429454066</v>
+        <v>17.70719429454178</v>
       </c>
       <c r="M55" t="n">
-        <v>0.04674154204394726</v>
+        <v>0.04674154204394305</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1682060861940222</v>
+        <v>0.1682060861938072</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003233999999991966</v>
+        <v>0.0001887999999965473</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.3704421489225846</v>
       </c>
       <c r="F56" t="n">
-        <v>27.6825844991214</v>
+        <v>27.6825844991221</v>
       </c>
       <c r="G56" t="n">
-        <v>91.60183220198122</v>
+        <v>91.60183220197918</v>
       </c>
       <c r="H56" t="n">
-        <v>5.615021116309696</v>
+        <v>5.615021116309959</v>
       </c>
       <c r="I56" t="n">
         <v>18.20214824947928</v>
@@ -3355,16 +3355,16 @@
         <v>31.1326825899254</v>
       </c>
       <c r="K56" t="n">
-        <v>18.00354802018675</v>
+        <v>18.00354802018681</v>
       </c>
       <c r="L56" t="n">
-        <v>26.15805844855866</v>
+        <v>26.15805844855963</v>
       </c>
       <c r="M56" t="n">
-        <v>0.05108155979349881</v>
+        <v>0.05108155979349575</v>
       </c>
       <c r="N56" t="n">
-        <v>1.307617537868574</v>
+        <v>1.307617537868367</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002954999999928987</v>
+        <v>0.000243999999995026</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.3247462229268011</v>
       </c>
       <c r="F57" t="n">
-        <v>29.29313964405977</v>
+        <v>29.29313964405954</v>
       </c>
       <c r="G57" t="n">
-        <v>19.32103612867423</v>
+        <v>19.32103612867464</v>
       </c>
       <c r="H57" t="n">
-        <v>9.805226198576559</v>
+        <v>9.805226198576033</v>
       </c>
       <c r="I57" t="n">
         <v>8.034645537807528</v>
@@ -3407,16 +3407,16 @@
         <v>44.66670492114711</v>
       </c>
       <c r="K57" t="n">
-        <v>7.880788243486313</v>
+        <v>7.880788243486287</v>
       </c>
       <c r="L57" t="n">
-        <v>38.14011077251608</v>
+        <v>38.14011077251521</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0506992421817533</v>
+        <v>0.05069924218175464</v>
       </c>
       <c r="N57" t="n">
-        <v>1.173912228743169</v>
+        <v>1.173912228743302</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003251999999918098</v>
+        <v>0.0001941999999957034</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.207528635100521</v>
       </c>
       <c r="F58" t="n">
-        <v>30.41511316685368</v>
+        <v>30.41511316685326</v>
       </c>
       <c r="G58" t="n">
-        <v>180.0243147612413</v>
+        <v>180.0243147612416</v>
       </c>
       <c r="H58" t="n">
-        <v>9.51730133774975</v>
+        <v>9.51730133774981</v>
       </c>
       <c r="I58" t="n">
         <v>4.777926150988158</v>
@@ -3459,16 +3459,16 @@
         <v>19.05908889727014</v>
       </c>
       <c r="K58" t="n">
-        <v>4.454146158391315</v>
+        <v>4.454146158391214</v>
       </c>
       <c r="L58" t="n">
-        <v>16.42740456027331</v>
+        <v>16.42740456027282</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0515364902277101</v>
+        <v>0.05153649022771448</v>
       </c>
       <c r="N58" t="n">
-        <v>1.281399660146108</v>
+        <v>1.281399660146201</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003396000000037702</v>
+        <v>0.0001893999999964535</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.02621043146937827</v>
       </c>
       <c r="F59" t="n">
-        <v>28.71996271158319</v>
+        <v>28.71996271158316</v>
       </c>
       <c r="G59" t="n">
-        <v>14.81894294740027</v>
+        <v>14.81894294740006</v>
       </c>
       <c r="H59" t="n">
-        <v>5.308213648647786</v>
+        <v>5.308213648647881</v>
       </c>
       <c r="I59" t="n">
         <v>5.111782853534632</v>
@@ -3514,13 +3514,13 @@
         <v>4.982829773216467</v>
       </c>
       <c r="L59" t="n">
-        <v>32.38397147147383</v>
+        <v>32.38397147147391</v>
       </c>
       <c r="M59" t="n">
         <v>0.04580770093831424</v>
       </c>
       <c r="N59" t="n">
-        <v>0.3407705999009931</v>
+        <v>0.3407705999009534</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002910000000042601</v>
+        <v>0.0001893999999964535</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.1520372292349083</v>
       </c>
       <c r="F60" t="n">
-        <v>27.99726790184882</v>
+        <v>27.9972679018486</v>
       </c>
       <c r="G60" t="n">
-        <v>69.30695960452486</v>
+        <v>69.30695960452441</v>
       </c>
       <c r="H60" t="n">
-        <v>7.130277897178446</v>
+        <v>7.130277897178405</v>
       </c>
       <c r="I60" t="n">
         <v>18.21010211320113</v>
@@ -3563,16 +3563,16 @@
         <v>33.19847585386613</v>
       </c>
       <c r="K60" t="n">
-        <v>18.03643481773675</v>
+        <v>18.03643481773672</v>
       </c>
       <c r="L60" t="n">
-        <v>29.87220904163737</v>
+        <v>29.87220904163718</v>
       </c>
       <c r="M60" t="n">
-        <v>0.04151789892084706</v>
+        <v>0.04151789892084769</v>
       </c>
       <c r="N60" t="n">
-        <v>0.6816476493542373</v>
+        <v>0.6816476493542544</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003382000000016205</v>
+        <v>0.0001970000000000027</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.3338567042789481</v>
       </c>
       <c r="F61" t="n">
-        <v>29.89001259086801</v>
+        <v>29.89001259086803</v>
       </c>
       <c r="G61" t="n">
-        <v>176.5652898048412</v>
+        <v>176.5652898048414</v>
       </c>
       <c r="H61" t="n">
-        <v>8.170921346375918</v>
+        <v>8.170921346376049</v>
       </c>
       <c r="I61" t="n">
         <v>6.732400721077228</v>
@@ -3615,16 +3615,16 @@
         <v>21.82727400816668</v>
       </c>
       <c r="K61" t="n">
-        <v>6.305245090350339</v>
+        <v>6.305245090350327</v>
       </c>
       <c r="L61" t="n">
-        <v>17.59206588917772</v>
+        <v>17.59206588917758</v>
       </c>
       <c r="M61" t="n">
-        <v>0.05921937291229313</v>
+        <v>0.05921937291229374</v>
       </c>
       <c r="N61" t="n">
-        <v>2.359718420267689</v>
+        <v>2.359718420267771</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.001126200000001631</v>
+        <v>0.0002566000000001623</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.1843541986426154</v>
       </c>
       <c r="F62" t="n">
-        <v>29.09775005912335</v>
+        <v>29.09775005912392</v>
       </c>
       <c r="G62" t="n">
-        <v>70.99834799580296</v>
+        <v>70.9983479958012</v>
       </c>
       <c r="H62" t="n">
-        <v>3.8112177726374</v>
+        <v>3.811217772637603</v>
       </c>
       <c r="I62" t="n">
         <v>11.41155827121607</v>
@@ -3667,16 +3667,16 @@
         <v>31.69457505163562</v>
       </c>
       <c r="K62" t="n">
-        <v>11.29862866645269</v>
+        <v>11.29862866645274</v>
       </c>
       <c r="L62" t="n">
-        <v>28.52313189510592</v>
+        <v>28.52313189510672</v>
       </c>
       <c r="M62" t="n">
-        <v>0.04901841317351405</v>
+        <v>0.04901841317351179</v>
       </c>
       <c r="N62" t="n">
-        <v>1.298864776492402</v>
+        <v>1.298864776492212</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003200999999961596</v>
+        <v>0.000197599999999909</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.08629911031195799</v>
       </c>
       <c r="F63" t="n">
-        <v>29.29247625992453</v>
+        <v>29.29247625992465</v>
       </c>
       <c r="G63" t="n">
-        <v>154.0438025610391</v>
+        <v>154.0438025610368</v>
       </c>
       <c r="H63" t="n">
-        <v>5.518182476056213</v>
+        <v>5.51818247605597</v>
       </c>
       <c r="I63" t="n">
         <v>11.32528329067774</v>
@@ -3722,13 +3722,13 @@
         <v>11.22588478121649</v>
       </c>
       <c r="L63" t="n">
-        <v>21.12641691917023</v>
+        <v>21.12641691917074</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0437674349110679</v>
+        <v>0.04376743491106688</v>
       </c>
       <c r="N63" t="n">
-        <v>0.4349507410622309</v>
+        <v>0.43495074106202</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002955000000071095</v>
+        <v>0.0001947000000015464</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.002465085260736356</v>
       </c>
       <c r="F64" t="n">
-        <v>29.47640554812535</v>
+        <v>29.47640554812514</v>
       </c>
       <c r="G64" t="n">
-        <v>5.927209923576206</v>
+        <v>5.927209923575989</v>
       </c>
       <c r="H64" t="n">
-        <v>7.834200034975553</v>
+        <v>7.834200034975946</v>
       </c>
       <c r="I64" t="n">
         <v>3.462135242408604</v>
@@ -3774,13 +3774,13 @@
         <v>3.386125582193157</v>
       </c>
       <c r="L64" t="n">
-        <v>36.27415294645919</v>
+        <v>36.27415294645945</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03722806812740537</v>
+        <v>0.03722806812740529</v>
       </c>
       <c r="N64" t="n">
-        <v>0.3916990904293204</v>
+        <v>0.3916990904292039</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003043000000104712</v>
+        <v>0.0002080999999947153</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.4277957307036171</v>
       </c>
       <c r="F65" t="n">
-        <v>27.36041552151303</v>
+        <v>27.3604155215126</v>
       </c>
       <c r="G65" t="n">
-        <v>116.0290462271191</v>
+        <v>116.0290462271276</v>
       </c>
       <c r="H65" t="n">
-        <v>6.543946606997734</v>
+        <v>6.543946606997715</v>
       </c>
       <c r="I65" t="n">
         <v>21.83479548908128</v>
@@ -3823,16 +3823,16 @@
         <v>27.80920715278775</v>
       </c>
       <c r="K65" t="n">
-        <v>21.59717646969598</v>
+        <v>21.59717646969608</v>
       </c>
       <c r="L65" t="n">
-        <v>22.90538075414234</v>
+        <v>22.90538075414078</v>
       </c>
       <c r="M65" t="n">
-        <v>0.05832481717913356</v>
+        <v>0.05832481717913809</v>
       </c>
       <c r="N65" t="n">
-        <v>1.151696992543551</v>
+        <v>1.151696992543834</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003160999999920477</v>
+        <v>0.0002116000000000895</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.7799354121537</v>
       </c>
       <c r="F66" t="n">
-        <v>28.98523517892612</v>
+        <v>28.98523517892244</v>
       </c>
       <c r="G66" t="n">
-        <v>64.29148468927529</v>
+        <v>64.29148468927636</v>
       </c>
       <c r="H66" t="n">
-        <v>10.12680369770874</v>
+        <v>10.12680369770676</v>
       </c>
       <c r="I66" t="n">
         <v>20.8613366628729</v>
@@ -3875,16 +3875,16 @@
         <v>33.97314475533167</v>
       </c>
       <c r="K66" t="n">
-        <v>20.78322564757993</v>
+        <v>20.78322564757967</v>
       </c>
       <c r="L66" t="n">
-        <v>33.84231576709368</v>
+        <v>33.84231576708835</v>
       </c>
       <c r="M66" t="n">
-        <v>0.05272020873098357</v>
+        <v>0.05272020873099901</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2066062982498326</v>
+        <v>0.2066062982496331</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.0002606999999983373</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.1667329646265426</v>
       </c>
       <c r="F67" t="n">
-        <v>29.41829052428428</v>
+        <v>29.41829052428433</v>
       </c>
       <c r="G67" t="n">
-        <v>69.51465466596244</v>
+        <v>69.51465466597033</v>
       </c>
       <c r="H67" t="n">
-        <v>1.813763525753669</v>
+        <v>1.813763525753543</v>
       </c>
       <c r="I67" t="n">
         <v>6.987251659285303</v>
@@ -3927,16 +3927,16 @@
         <v>30.74521447866422</v>
       </c>
       <c r="K67" t="n">
-        <v>6.816784053860304</v>
+        <v>6.816784053860291</v>
       </c>
       <c r="L67" t="n">
-        <v>27.7597538623807</v>
+        <v>27.75975386238042</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04348052066554778</v>
+        <v>0.04348052066554815</v>
       </c>
       <c r="N67" t="n">
-        <v>2.115619918385335</v>
+        <v>2.115619918385648</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002978999999925236</v>
+        <v>0.0002045000000023833</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.7168771271872</v>
       </c>
       <c r="F68" t="n">
-        <v>27.72740138813396</v>
+        <v>27.72740138813369</v>
       </c>
       <c r="G68" t="n">
-        <v>19.56332315041417</v>
+        <v>19.56332315041346</v>
       </c>
       <c r="H68" t="n">
-        <v>6.824119137810672</v>
+        <v>6.824119137810863</v>
       </c>
       <c r="I68" t="n">
         <v>6.619109501712943</v>
@@ -3979,16 +3979,16 @@
         <v>32.48901841149885</v>
       </c>
       <c r="K68" t="n">
-        <v>6.560888660629564</v>
+        <v>6.560888660629539</v>
       </c>
       <c r="L68" t="n">
-        <v>33.04331289654542</v>
+        <v>33.04331289654539</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04848722062989874</v>
+        <v>0.04848722062989917</v>
       </c>
       <c r="N68" t="n">
-        <v>1.453421722529981</v>
+        <v>1.453421722530108</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003367000000054077</v>
+        <v>0.0001888999999977159</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.7742955695559</v>
       </c>
       <c r="F69" t="n">
-        <v>29.23072811681071</v>
+        <v>29.23072811678214</v>
       </c>
       <c r="G69" t="n">
-        <v>95.76863830348451</v>
+        <v>95.76863830348573</v>
       </c>
       <c r="H69" t="n">
-        <v>13.2274781997632</v>
+        <v>13.22747819974684</v>
       </c>
       <c r="I69" t="n">
         <v>34.07554230545824</v>
@@ -4031,16 +4031,16 @@
         <v>30.29280265083704</v>
       </c>
       <c r="K69" t="n">
-        <v>33.95678478506412</v>
+        <v>33.95678478506205</v>
       </c>
       <c r="L69" t="n">
-        <v>30.1626912591382</v>
+        <v>30.162691259105</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04804828881619633</v>
+        <v>0.04804828881629573</v>
       </c>
       <c r="N69" t="n">
-        <v>0.1137686518384526</v>
+        <v>0.1137686518438407</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003001000000040221</v>
+        <v>0.0001895999999987907</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.1888952728743358</v>
       </c>
       <c r="F70" t="n">
-        <v>29.29254356537693</v>
+        <v>29.29254356537789</v>
       </c>
       <c r="G70" t="n">
-        <v>92.67984359367587</v>
+        <v>92.67984359367583</v>
       </c>
       <c r="H70" t="n">
-        <v>1.9740118808338</v>
+        <v>1.974011880833951</v>
       </c>
       <c r="I70" t="n">
         <v>7.978481920009612</v>
@@ -4083,16 +4083,16 @@
         <v>30.5774947170148</v>
       </c>
       <c r="K70" t="n">
-        <v>7.787851035851925</v>
+        <v>7.787851035852039</v>
       </c>
       <c r="L70" t="n">
-        <v>26.81257107917136</v>
+        <v>26.81257107917232</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04648365979014715</v>
+        <v>0.04648365979014375</v>
       </c>
       <c r="N70" t="n">
-        <v>2.50082971450286</v>
+        <v>2.500829714502672</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003051999999996724</v>
+        <v>0.0001882000000037465</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.8168985802904</v>
       </c>
       <c r="F71" t="n">
-        <v>28.18173404606264</v>
+        <v>28.18173404606653</v>
       </c>
       <c r="G71" t="n">
-        <v>50.93146668759341</v>
+        <v>50.93146668759287</v>
       </c>
       <c r="H71" t="n">
-        <v>12.57792293741484</v>
+        <v>12.57792293741747</v>
       </c>
       <c r="I71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="J71" t="n">
         <v>38.87559435981993</v>
       </c>
       <c r="K71" t="n">
-        <v>20.04551929600469</v>
+        <v>20.04551929600493</v>
       </c>
       <c r="L71" t="n">
-        <v>37.33993409618535</v>
+        <v>37.33993409619178</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04830870283148242</v>
+        <v>0.04830870283146707</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1815098015938607</v>
+        <v>0.1815098015930154</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003060999999888736</v>
+        <v>0.0002497999999988565</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.8298005183396</v>
       </c>
       <c r="F72" t="n">
-        <v>29.8189837101939</v>
+        <v>29.81898371019292</v>
       </c>
       <c r="G72" t="n">
-        <v>165.3845554175735</v>
+        <v>165.3845554175742</v>
       </c>
       <c r="H72" t="n">
-        <v>12.96163593413442</v>
+        <v>12.96163593413408</v>
       </c>
       <c r="I72" t="n">
         <v>22.50110910593897</v>
@@ -4187,16 +4187,16 @@
         <v>12.59736678041878</v>
       </c>
       <c r="K72" t="n">
-        <v>22.39188156951259</v>
+        <v>22.39188156951245</v>
       </c>
       <c r="L72" t="n">
-        <v>13.14280128143435</v>
+        <v>13.14280128143365</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04542075130775031</v>
+        <v>0.04542075130775355</v>
       </c>
       <c r="N72" t="n">
-        <v>0.2327111170036199</v>
+        <v>0.2327111170036065</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0001912999999973408</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.08612062994596124</v>
       </c>
       <c r="F73" t="n">
-        <v>29.01575169793977</v>
+        <v>29.01575169794195</v>
       </c>
       <c r="G73" t="n">
-        <v>37.45963382560476</v>
+        <v>37.45963382560297</v>
       </c>
       <c r="H73" t="n">
-        <v>6.071081398932793</v>
+        <v>6.071081398934037</v>
       </c>
       <c r="I73" t="n">
         <v>10.06238009975766</v>
@@ -4239,16 +4239,16 @@
         <v>35.58374545764129</v>
       </c>
       <c r="K73" t="n">
-        <v>9.948875076053827</v>
+        <v>9.94887507605403</v>
       </c>
       <c r="L73" t="n">
-        <v>32.67363085410985</v>
+        <v>32.67363085411343</v>
       </c>
       <c r="M73" t="n">
-        <v>0.04146744329135885</v>
+        <v>0.04146744329135107</v>
       </c>
       <c r="N73" t="n">
-        <v>0.7792612954532765</v>
+        <v>0.779261295452607</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003127000000091584</v>
+        <v>0.0001960000000025275</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9362909001869</v>
       </c>
       <c r="F74" t="n">
-        <v>28.5505656795948</v>
+        <v>28.55056567959464</v>
       </c>
       <c r="G74" t="n">
-        <v>18.34304902247586</v>
+        <v>18.34304902247667</v>
       </c>
       <c r="H74" t="n">
-        <v>11.09197629464286</v>
+        <v>11.09197629464186</v>
       </c>
       <c r="I74" t="n">
         <v>7.949461920862264</v>
@@ -4291,16 +4291,16 @@
         <v>40.47776009458681</v>
       </c>
       <c r="K74" t="n">
-        <v>7.864683408019672</v>
+        <v>7.864683408019658</v>
       </c>
       <c r="L74" t="n">
-        <v>38.9344655000944</v>
+        <v>38.93446550009303</v>
       </c>
       <c r="M74" t="n">
-        <v>0.04272740129831255</v>
+        <v>0.04272740129831474</v>
       </c>
       <c r="N74" t="n">
-        <v>0.1332722220932011</v>
+        <v>0.1332722220934604</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002937999999943486</v>
+        <v>0.0002150999999983583</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.884637389738</v>
       </c>
       <c r="F75" t="n">
-        <v>29.65118176584796</v>
+        <v>29.65118176584435</v>
       </c>
       <c r="G75" t="n">
-        <v>113.6323459433634</v>
+        <v>113.6323459433643</v>
       </c>
       <c r="H75" t="n">
-        <v>9.379256149425531</v>
+        <v>9.379256149424029</v>
       </c>
       <c r="I75" t="n">
         <v>26.91838834236455</v>
@@ -4343,16 +4343,16 @@
         <v>25.19117466107735</v>
       </c>
       <c r="K75" t="n">
-        <v>26.89072398680977</v>
+        <v>26.89072398680943</v>
       </c>
       <c r="L75" t="n">
-        <v>25.25362065360659</v>
+        <v>25.25362065360309</v>
       </c>
       <c r="M75" t="n">
-        <v>0.03880739230830073</v>
+        <v>0.0388073923083107</v>
       </c>
       <c r="N75" t="n">
-        <v>0.08458569000843924</v>
+        <v>0.084585690008667</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.000332000000000221</v>
+        <v>0.0001888999999977159</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.8783309012385</v>
       </c>
       <c r="F76" t="n">
-        <v>28.54514794580857</v>
+        <v>28.5451479458066</v>
       </c>
       <c r="G76" t="n">
-        <v>35.34356610785862</v>
+        <v>35.34356610785906</v>
       </c>
       <c r="H76" t="n">
-        <v>12.16936446399238</v>
+        <v>12.16936446399081</v>
       </c>
       <c r="I76" t="n">
         <v>14.26388074475133</v>
@@ -4395,16 +4395,16 @@
         <v>40.62758235916512</v>
       </c>
       <c r="K76" t="n">
-        <v>14.17489227526799</v>
+        <v>14.17489227526786</v>
       </c>
       <c r="L76" t="n">
-        <v>39.02887387931354</v>
+        <v>39.02887387930984</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03960674665940142</v>
+        <v>0.0396067466594085</v>
       </c>
       <c r="N76" t="n">
-        <v>0.1635309832060378</v>
+        <v>0.163530983206522</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003121000000021468</v>
+        <v>0.0002496000000036247</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.1419004267952209</v>
       </c>
       <c r="F77" t="n">
-        <v>29.25687233461553</v>
+        <v>29.2568723346144</v>
       </c>
       <c r="G77" t="n">
-        <v>123.0977715136402</v>
+        <v>123.0977715136487</v>
       </c>
       <c r="H77" t="n">
-        <v>3.822234450903521</v>
+        <v>3.822234450903488</v>
       </c>
       <c r="I77" t="n">
         <v>12.00268982686304</v>
@@ -4447,16 +4447,16 @@
         <v>26.99609284033786</v>
       </c>
       <c r="K77" t="n">
-        <v>11.898075788169</v>
+        <v>11.89807578816887</v>
       </c>
       <c r="L77" t="n">
-        <v>24.66569389978836</v>
+        <v>24.66569389978663</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04337125147764082</v>
+        <v>0.04337125147764588</v>
       </c>
       <c r="N77" t="n">
-        <v>0.7074577619905187</v>
+        <v>0.7074577619908532</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003002000000122962</v>
+        <v>0.0002040999999977089</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.8119397378562</v>
       </c>
       <c r="F78" t="n">
-        <v>28.66277577383469</v>
+        <v>28.6627757738333</v>
       </c>
       <c r="G78" t="n">
-        <v>54.12350172661028</v>
+        <v>54.12350172660975</v>
       </c>
       <c r="H78" t="n">
-        <v>12.78909901817505</v>
+        <v>12.78909901817435</v>
       </c>
       <c r="I78" t="n">
         <v>21.14464081260298</v>
@@ -4499,16 +4499,16 @@
         <v>38.60175053192231</v>
       </c>
       <c r="K78" t="n">
-        <v>21.08695253525254</v>
+        <v>21.08695253525243</v>
       </c>
       <c r="L78" t="n">
-        <v>37.555021488202</v>
+        <v>37.55502148820008</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0433453494761092</v>
+        <v>0.04334534947611358</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1128135982963417</v>
+        <v>0.1128135982966025</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.001307699999998135</v>
+        <v>0.0001899999999963597</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9551110295849</v>
       </c>
       <c r="F79" t="n">
-        <v>29.35945814565141</v>
+        <v>29.35945814565051</v>
       </c>
       <c r="G79" t="n">
-        <v>165.1072047558833</v>
+        <v>165.1072047558827</v>
       </c>
       <c r="H79" t="n">
-        <v>10.30438980516096</v>
+        <v>10.30438980516027</v>
       </c>
       <c r="I79" t="n">
         <v>16.40253997268591</v>
@@ -4551,16 +4551,16 @@
         <v>15.58284333545443</v>
       </c>
       <c r="K79" t="n">
-        <v>16.29869590450077</v>
+        <v>16.29869590450054</v>
       </c>
       <c r="L79" t="n">
-        <v>15.41259422525234</v>
+        <v>15.41259422525225</v>
       </c>
       <c r="M79" t="n">
-        <v>0.04152951537617179</v>
+        <v>0.04152951537617513</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1463401765869627</v>
+        <v>0.1463401765872042</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003264999999998963</v>
+        <v>0.0001932999999993967</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9755907725551</v>
       </c>
       <c r="F80" t="n">
-        <v>29.15686612513654</v>
+        <v>29.15686612513622</v>
       </c>
       <c r="G80" t="n">
-        <v>8.793474949247152</v>
+        <v>8.793474949246923</v>
       </c>
       <c r="H80" t="n">
-        <v>9.806188514127394</v>
+        <v>9.806188514127484</v>
       </c>
       <c r="I80" t="n">
         <v>4.491261423189937</v>
@@ -4603,16 +4603,16 @@
         <v>40.76138943515837</v>
       </c>
       <c r="K80" t="n">
-        <v>4.429793688626182</v>
+        <v>4.429793688626156</v>
       </c>
       <c r="L80" t="n">
-        <v>38.28397532239504</v>
+        <v>38.28397532239484</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04243514563703748</v>
+        <v>0.04243514563703801</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4252312392914316</v>
+        <v>0.4252312392914211</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.000202600000001496</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.6632717641540169</v>
       </c>
       <c r="F81" t="n">
-        <v>26.01314502660609</v>
+        <v>26.01314502661129</v>
       </c>
       <c r="G81" t="n">
-        <v>110.7948127783532</v>
+        <v>110.7948127783446</v>
       </c>
       <c r="H81" t="n">
-        <v>6.31382699169231</v>
+        <v>6.31382699169413</v>
       </c>
       <c r="I81" t="n">
         <v>22.81548823738686</v>
@@ -4655,16 +4655,16 @@
         <v>29.68449734234962</v>
       </c>
       <c r="K81" t="n">
-        <v>22.44861526356473</v>
+        <v>22.4486152635653</v>
       </c>
       <c r="L81" t="n">
-        <v>22.4028122441101</v>
+        <v>22.40281224411612</v>
       </c>
       <c r="M81" t="n">
-        <v>0.08916385699087497</v>
+        <v>0.08916385699082846</v>
       </c>
       <c r="N81" t="n">
-        <v>1.685585286323859</v>
+        <v>1.685585286322635</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003098000000107959</v>
+        <v>0.0002428999999963821</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.6200294127704</v>
       </c>
       <c r="F82" t="n">
-        <v>29.69387904325239</v>
+        <v>29.69387904326241</v>
       </c>
       <c r="G82" t="n">
-        <v>89.66485609643723</v>
+        <v>89.66485609643641</v>
       </c>
       <c r="H82" t="n">
-        <v>11.84609251471418</v>
+        <v>11.84609251471939</v>
       </c>
       <c r="I82" t="n">
         <v>29.25110244472909</v>
@@ -4707,16 +4707,16 @@
         <v>30.30774104493361</v>
       </c>
       <c r="K82" t="n">
-        <v>29.21508043766233</v>
+        <v>29.21508043766304</v>
       </c>
       <c r="L82" t="n">
-        <v>31.11848253127412</v>
+        <v>31.1184825312861</v>
       </c>
       <c r="M82" t="n">
-        <v>0.05271692199108034</v>
+        <v>0.05271692199104234</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2600403175482431</v>
+        <v>0.2600403175498806</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003363000000007332</v>
+        <v>0.0002015000000028522</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.2719800684437436</v>
       </c>
       <c r="F83" t="n">
-        <v>28.68684644731886</v>
+        <v>28.68684644731564</v>
       </c>
       <c r="G83" t="n">
-        <v>77.39852440603603</v>
+        <v>77.39852440604723</v>
       </c>
       <c r="H83" t="n">
-        <v>5.49183488798581</v>
+        <v>5.491834887984305</v>
       </c>
       <c r="I83" t="n">
         <v>15.81851978734653</v>
@@ -4759,16 +4759,16 @@
         <v>32.34144758506243</v>
       </c>
       <c r="K83" t="n">
-        <v>15.71148193413483</v>
+        <v>15.71148193413459</v>
       </c>
       <c r="L83" t="n">
-        <v>28.57558988902681</v>
+        <v>28.57558988902171</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04692426726509942</v>
+        <v>0.04692426726511306</v>
       </c>
       <c r="N83" t="n">
-        <v>1.11998305497984</v>
+        <v>1.119983054980977</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003069000000124333</v>
+        <v>0.0002014000000016836</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.8318699194488</v>
       </c>
       <c r="F84" t="n">
-        <v>28.5712845977063</v>
+        <v>28.57128459770469</v>
       </c>
       <c r="G84" t="n">
-        <v>46.87445537069915</v>
+        <v>46.87445537070099</v>
       </c>
       <c r="H84" t="n">
-        <v>10.85369435841405</v>
+        <v>10.85369435841257</v>
       </c>
       <c r="I84" t="n">
         <v>17.00129706224179</v>
@@ -4811,16 +4811,16 @@
         <v>37.32399253950987</v>
       </c>
       <c r="K84" t="n">
-        <v>16.90276345422762</v>
+        <v>16.90276345422755</v>
       </c>
       <c r="L84" t="n">
-        <v>36.4321778030265</v>
+        <v>36.43217780302321</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04762471260306697</v>
+        <v>0.04762471260307475</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1739672706963361</v>
+        <v>0.1739672706961052</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002993000000088841</v>
+        <v>0.000197999999997478</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.8301374227926</v>
       </c>
       <c r="F85" t="n">
-        <v>28.39772945280709</v>
+        <v>28.39772945281021</v>
       </c>
       <c r="G85" t="n">
-        <v>44.05677420293687</v>
+        <v>44.05677420293544</v>
       </c>
       <c r="H85" t="n">
-        <v>11.23035436067964</v>
+        <v>11.23035436068201</v>
       </c>
       <c r="I85" t="n">
         <v>16.53125344579031</v>
@@ -4863,16 +4863,16 @@
         <v>38.26062136792312</v>
       </c>
       <c r="K85" t="n">
-        <v>16.42845106728621</v>
+        <v>16.42845106728642</v>
       </c>
       <c r="L85" t="n">
-        <v>36.97567167796542</v>
+        <v>36.97567167797106</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04467606518936494</v>
+        <v>0.04467606518935172</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1425017943212394</v>
+        <v>0.1425017943215063</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0004359999999934416</v>
+        <v>0.0002040000000036457</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.02632244039511911</v>
       </c>
       <c r="F86" t="n">
-        <v>28.92774256069046</v>
+        <v>28.92774256069011</v>
       </c>
       <c r="G86" t="n">
-        <v>7.415527995045025</v>
+        <v>7.415527995044846</v>
       </c>
       <c r="H86" t="n">
-        <v>7.045330014036871</v>
+        <v>7.045330014036595</v>
       </c>
       <c r="I86" t="n">
         <v>3.881837099353531</v>
@@ -4915,16 +4915,16 @@
         <v>36.30515202144628</v>
       </c>
       <c r="K86" t="n">
-        <v>3.751431464230637</v>
+        <v>3.751431464230586</v>
       </c>
       <c r="L86" t="n">
-        <v>34.76956347260843</v>
+        <v>34.76956347260776</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04693578322393714</v>
+        <v>0.04693578322393872</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2584346909552858</v>
+        <v>0.2584346909554277</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003060999999888736</v>
+        <v>0.0002449999999996066</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9646298557842</v>
       </c>
       <c r="F87" t="n">
-        <v>28.9969545016323</v>
+        <v>28.99695450162914</v>
       </c>
       <c r="G87" t="n">
-        <v>111.0270950147733</v>
+        <v>111.0270950147751</v>
       </c>
       <c r="H87" t="n">
-        <v>8.724308473790529</v>
+        <v>8.72430847378925</v>
       </c>
       <c r="I87" t="n">
         <v>25.87965439725306</v>
@@ -4967,16 +4967,16 @@
         <v>25.95106000866057</v>
       </c>
       <c r="K87" t="n">
-        <v>25.77464120515969</v>
+        <v>25.77464120515939</v>
       </c>
       <c r="L87" t="n">
-        <v>25.12367086299789</v>
+        <v>25.1236708629946</v>
       </c>
       <c r="M87" t="n">
-        <v>0.04293800752954426</v>
+        <v>0.04293800752955466</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2005649690421842</v>
+        <v>0.2005649690427795</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003009999999932234</v>
+        <v>0.0001947999999956096</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.1192571437934559</v>
       </c>
       <c r="F88" t="n">
-        <v>29.10681520159807</v>
+        <v>29.10681520159799</v>
       </c>
       <c r="G88" t="n">
-        <v>47.41767610142696</v>
+        <v>47.41767610142446</v>
       </c>
       <c r="H88" t="n">
-        <v>3.732914961910438</v>
+        <v>3.732914961910621</v>
       </c>
       <c r="I88" t="n">
         <v>8.841399981764416</v>
@@ -5019,16 +5019,16 @@
         <v>33.06978590212768</v>
       </c>
       <c r="K88" t="n">
-        <v>8.722573412838225</v>
+        <v>8.722573412838212</v>
       </c>
       <c r="L88" t="n">
-        <v>29.866870564738</v>
+        <v>29.86687056473821</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04383514982197034</v>
+        <v>0.04383514982197011</v>
       </c>
       <c r="N88" t="n">
-        <v>1.263455896544729</v>
+        <v>1.263455896544579</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002969999999891115</v>
+        <v>0.0001941999999957034</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.9255248958294</v>
       </c>
       <c r="F89" t="n">
-        <v>29.06360693229481</v>
+        <v>29.06360693231539</v>
       </c>
       <c r="G89" t="n">
-        <v>117.7898720503994</v>
+        <v>117.7898720503946</v>
       </c>
       <c r="H89" t="n">
-        <v>13.95049253572448</v>
+        <v>13.95049253573673</v>
       </c>
       <c r="I89" t="n">
         <v>40.62090861008976</v>
@@ -5071,16 +5071,16 @@
         <v>25.30051964941712</v>
       </c>
       <c r="K89" t="n">
-        <v>40.53637403727443</v>
+        <v>40.53637403727593</v>
       </c>
       <c r="L89" t="n">
-        <v>24.5294852257539</v>
+        <v>24.52948522577413</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04308248604401471</v>
+        <v>0.04308248604394949</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1682591140569655</v>
+        <v>0.1682591140532562</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003157999999956473</v>
+        <v>0.0002634999999955312</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9786231391697</v>
       </c>
       <c r="F90" t="n">
-        <v>29.30009033276137</v>
+        <v>29.30009033276835</v>
       </c>
       <c r="G90" t="n">
-        <v>116.533102424346</v>
+        <v>116.5331024243427</v>
       </c>
       <c r="H90" t="n">
-        <v>8.810036381330884</v>
+        <v>8.810036381333644</v>
       </c>
       <c r="I90" t="n">
         <v>25.88603784183202</v>
@@ -5123,16 +5123,16 @@
         <v>25.01898544775609</v>
       </c>
       <c r="K90" t="n">
-        <v>25.80359544219793</v>
+        <v>25.80359544219859</v>
       </c>
       <c r="L90" t="n">
-        <v>24.3932533506965</v>
+        <v>24.39325335070336</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04169799737957634</v>
+        <v>0.04169799737955451</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1388232192246786</v>
+        <v>0.1388232192233815</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002998000000076217</v>
+        <v>0.000195200000000284</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.3387460053094221</v>
       </c>
       <c r="F91" t="n">
-        <v>28.15059645991174</v>
+        <v>28.15059645991304</v>
       </c>
       <c r="G91" t="n">
-        <v>110.1124398284565</v>
+        <v>110.1124398284579</v>
       </c>
       <c r="H91" t="n">
-        <v>5.147084655632403</v>
+        <v>5.14708465563278</v>
       </c>
       <c r="I91" t="n">
         <v>17.15632957635029</v>
@@ -5175,16 +5175,16 @@
         <v>28.66617941202903</v>
       </c>
       <c r="K91" t="n">
-        <v>16.95438893955673</v>
+        <v>16.95438893955689</v>
       </c>
       <c r="L91" t="n">
-        <v>24.47355739712698</v>
+        <v>24.47355739712804</v>
       </c>
       <c r="M91" t="n">
-        <v>0.05174284605413235</v>
+        <v>0.05174284605412711</v>
       </c>
       <c r="N91" t="n">
-        <v>1.17898128188894</v>
+        <v>1.178981281888717</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002994999999970105</v>
+        <v>0.0002518999999949756</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.04489733363986508</v>
       </c>
       <c r="F92" t="n">
-        <v>28.78563837146672</v>
+        <v>28.78563837146689</v>
       </c>
       <c r="G92" t="n">
-        <v>29.60646112129778</v>
+        <v>29.6064611212986</v>
       </c>
       <c r="H92" t="n">
-        <v>3.937453761905201</v>
+        <v>3.937453761905128</v>
       </c>
       <c r="I92" t="n">
         <v>6.799638401444717</v>
@@ -5227,16 +5227,16 @@
         <v>32.8194763419126</v>
       </c>
       <c r="K92" t="n">
-        <v>6.645030438175704</v>
+        <v>6.645030438175729</v>
       </c>
       <c r="L92" t="n">
-        <v>30.48209400169086</v>
+        <v>30.48209400169092</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04524214113927323</v>
+        <v>0.04524214113927268</v>
       </c>
       <c r="N92" t="n">
-        <v>0.6966721301306005</v>
+        <v>0.6966721301306552</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003181999999952723</v>
+        <v>0.000197999999997478</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.1212242035469481</v>
       </c>
       <c r="F93" t="n">
-        <v>28.7560781443187</v>
+        <v>28.75607814431959</v>
       </c>
       <c r="G93" t="n">
-        <v>42.20295901254134</v>
+        <v>42.20295901253962</v>
       </c>
       <c r="H93" t="n">
-        <v>5.199033679552207</v>
+        <v>5.199033679552764</v>
       </c>
       <c r="I93" t="n">
         <v>10.12608089519902</v>
@@ -5279,16 +5279,16 @@
         <v>34.65343846802563</v>
       </c>
       <c r="K93" t="n">
-        <v>9.996861205386958</v>
+        <v>9.996861205387047</v>
       </c>
       <c r="L93" t="n">
-        <v>31.23543588927875</v>
+        <v>31.23543588928029</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04133372690993074</v>
+        <v>0.04133372690992745</v>
       </c>
       <c r="N93" t="n">
-        <v>0.9766242844015696</v>
+        <v>0.9766242844012308</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002959999999916363</v>
+        <v>0.0001953000000014526</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9539401516435</v>
       </c>
       <c r="F94" t="n">
-        <v>29.36540976638193</v>
+        <v>29.36540976637942</v>
       </c>
       <c r="G94" t="n">
-        <v>159.5592285425196</v>
+        <v>159.5592285425209</v>
       </c>
       <c r="H94" t="n">
-        <v>12.17191817492838</v>
+        <v>12.17191817492728</v>
       </c>
       <c r="I94" t="n">
         <v>25.62795621500346</v>
@@ -5331,16 +5331,16 @@
         <v>14.83878058168517</v>
       </c>
       <c r="K94" t="n">
-        <v>25.56240098414085</v>
+        <v>25.56240098414047</v>
       </c>
       <c r="L94" t="n">
-        <v>14.4797813054794</v>
+        <v>14.47978130547781</v>
       </c>
       <c r="M94" t="n">
-        <v>0.03735338482131503</v>
+        <v>0.03735338482132267</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1176145076960585</v>
+        <v>0.1176145076965895</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003128999999972848</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.6739603839313</v>
       </c>
       <c r="F95" t="n">
-        <v>29.73169594167455</v>
+        <v>29.73169594167416</v>
       </c>
       <c r="G95" t="n">
-        <v>104.4499376538076</v>
+        <v>104.449937653807</v>
       </c>
       <c r="H95" t="n">
-        <v>11.08790827748809</v>
+        <v>11.08790827748792</v>
       </c>
       <c r="I95" t="n">
         <v>30.33422199235522</v>
@@ -5383,16 +5383,16 @@
         <v>26.76193268396159</v>
       </c>
       <c r="K95" t="n">
-        <v>30.26653730665267</v>
+        <v>30.26653730665261</v>
       </c>
       <c r="L95" t="n">
-        <v>27.55002183138026</v>
+        <v>27.55002183138001</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04656270781665475</v>
+        <v>0.0465627078166559</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2287485244780507</v>
+        <v>0.2287485244780261</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0005464000000046099</v>
+        <v>0.0002347000000000321</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.8513093568973</v>
       </c>
       <c r="F96" t="n">
-        <v>29.38847114535967</v>
+        <v>29.38847114535276</v>
       </c>
       <c r="G96" t="n">
-        <v>127.0713466040114</v>
+        <v>127.0713466040147</v>
       </c>
       <c r="H96" t="n">
-        <v>9.986399530931354</v>
+        <v>9.986399530928415</v>
       </c>
       <c r="I96" t="n">
         <v>28.70555251722355</v>
@@ -5435,16 +5435,16 @@
         <v>22.27073467156608</v>
       </c>
       <c r="K96" t="n">
-        <v>28.59502775100313</v>
+        <v>28.59502775100244</v>
       </c>
       <c r="L96" t="n">
-        <v>22.26377402053622</v>
+        <v>22.26377402053001</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0435995616833425</v>
+        <v>0.0435995616833641</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1615763515515725</v>
+        <v>0.1615763515528484</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003329000000036331</v>
+        <v>0.0002454999999983443</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.1328577799104965</v>
       </c>
       <c r="F97" t="n">
-        <v>29.14252547542349</v>
+        <v>29.14252547542421</v>
       </c>
       <c r="G97" t="n">
-        <v>51.32575847357494</v>
+        <v>51.3257584735701</v>
       </c>
       <c r="H97" t="n">
-        <v>3.822056597248478</v>
+        <v>3.822056597249024</v>
       </c>
       <c r="I97" t="n">
         <v>9.443662727940012</v>
@@ -5487,16 +5487,16 @@
         <v>32.60134686113346</v>
       </c>
       <c r="K97" t="n">
-        <v>9.310615548534461</v>
+        <v>9.310615548534523</v>
       </c>
       <c r="L97" t="n">
-        <v>29.7845190021685</v>
+        <v>29.78451900216995</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0412699256629941</v>
+        <v>0.04126992566299099</v>
       </c>
       <c r="N97" t="n">
-        <v>1.123933177925157</v>
+        <v>1.123933177924689</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002991000000065469</v>
+        <v>0.000197599999999909</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9860304450468</v>
       </c>
       <c r="F98" t="n">
-        <v>28.33141157499355</v>
+        <v>28.33141157499593</v>
       </c>
       <c r="G98" t="n">
-        <v>38.54955334180619</v>
+        <v>38.54955334180677</v>
       </c>
       <c r="H98" t="n">
-        <v>12.83284451149199</v>
+        <v>12.83284451149334</v>
       </c>
       <c r="I98" t="n">
         <v>16.00737530966048</v>
@@ -5539,16 +5539,16 @@
         <v>42.05525927522663</v>
       </c>
       <c r="K98" t="n">
-        <v>15.90638066514022</v>
+        <v>15.90638066514038</v>
       </c>
       <c r="L98" t="n">
-        <v>39.26176098727097</v>
+        <v>39.26176098727471</v>
       </c>
       <c r="M98" t="n">
-        <v>0.04149915240022951</v>
+        <v>0.04149915240022219</v>
       </c>
       <c r="N98" t="n">
-        <v>0.332569764613448</v>
+        <v>0.3325697646129985</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003060000000090213</v>
+        <v>0.0001917000000020153</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.3502375502584012</v>
       </c>
       <c r="F99" t="n">
-        <v>26.67331482446197</v>
+        <v>26.67331482446761</v>
       </c>
       <c r="G99" t="n">
-        <v>154.7659015627361</v>
+        <v>154.765901562733</v>
       </c>
       <c r="H99" t="n">
-        <v>13.00304144247985</v>
+        <v>13.00304144248292</v>
       </c>
       <c r="I99" t="n">
         <v>39.03082884889427</v>
@@ -5591,16 +5591,16 @@
         <v>15.53497559712574</v>
       </c>
       <c r="K99" t="n">
-        <v>38.77267526074989</v>
+        <v>38.77267526075067</v>
       </c>
       <c r="L99" t="n">
-        <v>12.75184439807329</v>
+        <v>12.75184439807683</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05236990877153085</v>
+        <v>0.05236990877148987</v>
       </c>
       <c r="N99" t="n">
-        <v>0.7459894889346422</v>
+        <v>0.7459894889334697</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003284999999948468</v>
+        <v>0.000216899999998077</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.9052565837468</v>
       </c>
       <c r="F100" t="n">
-        <v>29.0105599688072</v>
+        <v>29.01055996880482</v>
       </c>
       <c r="G100" t="n">
-        <v>130.7144735157607</v>
+        <v>130.7144735157625</v>
       </c>
       <c r="H100" t="n">
-        <v>9.373535653605149</v>
+        <v>9.37353565360422</v>
       </c>
       <c r="I100" t="n">
         <v>26.96775176704555</v>
@@ -5643,16 +5643,16 @@
         <v>21.92280540344407</v>
       </c>
       <c r="K100" t="n">
-        <v>26.85244257484704</v>
+        <v>26.85244257484681</v>
       </c>
       <c r="L100" t="n">
-        <v>21.36026070879347</v>
+        <v>21.36026070879128</v>
       </c>
       <c r="M100" t="n">
-        <v>0.04742621609529712</v>
+        <v>0.04742621609530522</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2092555517571988</v>
+        <v>0.2092555517576138</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003119999999938727</v>
+        <v>0.0001954000000026213</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.0284717685403868</v>
       </c>
       <c r="F101" t="n">
-        <v>28.89413929878733</v>
+        <v>28.89413929877917</v>
       </c>
       <c r="G101" t="n">
-        <v>122.7486972302035</v>
+        <v>122.7486972302074</v>
       </c>
       <c r="H101" t="n">
-        <v>8.451397067224445</v>
+        <v>8.451397067221327</v>
       </c>
       <c r="I101" t="n">
         <v>25.13702639845252</v>
@@ -5695,16 +5695,16 @@
         <v>24.19989479699868</v>
       </c>
       <c r="K101" t="n">
-        <v>25.04346741966185</v>
+        <v>25.04346741966097</v>
       </c>
       <c r="L101" t="n">
-        <v>22.94909447558459</v>
+        <v>22.94909447557702</v>
       </c>
       <c r="M101" t="n">
-        <v>0.04087289067732347</v>
+        <v>0.04087289067735056</v>
       </c>
       <c r="N101" t="n">
-        <v>0.2674679069673387</v>
+        <v>0.2674679069690565</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003128999999972848</v>
+        <v>0.0002425999999999817</v>
       </c>
     </row>
   </sheetData>
